--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_9_Industrial consumption.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_9_Industrial consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="167">
   <si>
     <t>tech</t>
   </si>
@@ -131,9 +131,6 @@
     <t>IND_CH_MTH_ELCSYS_NEW</t>
   </si>
   <si>
-    <t>IND_CH_MTH_NGASR_CCS_NEW</t>
-  </si>
-  <si>
     <t>IND_CH_EC_NEW</t>
   </si>
   <si>
@@ -182,19 +179,13 @@
     <t>IND_IS_SCR_NEW</t>
   </si>
   <si>
-    <t>IND_IS_BOF_BFBOF_CCS_NEW</t>
-  </si>
-  <si>
-    <t>IND_IS_BOF_TGR_CCS_NEW</t>
-  </si>
-  <si>
     <t>IND_IS_BOF_HISBOF_NEW</t>
   </si>
   <si>
-    <t>IND_IS_DRI_DRIEAF_CCS_NEW</t>
-  </si>
-  <si>
-    <t>IND_IS_DRI_ULCORED_CCS_NEW</t>
+    <t>IND_IS_DRI_HDREAF_NEW</t>
+  </si>
+  <si>
+    <t>IND_IS_BOF_ULCOLYSIS_NEW</t>
   </si>
   <si>
     <t>IND_IS_MD_ELC_NEW</t>
@@ -233,9 +224,6 @@
     <t>IND_NF_ALU_HLHIA_NEW</t>
   </si>
   <si>
-    <t>IND_NF_ALU_CBT_NEW</t>
-  </si>
-  <si>
     <t>IND_NF_COP_NEW</t>
   </si>
   <si>
@@ -269,6 +257,9 @@
     <t>IND_NM_LIM_LRK_NEW</t>
   </si>
   <si>
+    <t>IND_NM_GLS_FOSS_NEW</t>
+  </si>
+  <si>
     <t>IND_NM_GLS_ELEC_NEW</t>
   </si>
   <si>
@@ -416,6 +407,12 @@
     <t>IND_OTH_PH_NGA_NEW</t>
   </si>
   <si>
+    <t>IND_OTH_PH_COA_NEW</t>
+  </si>
+  <si>
+    <t>IND_OTH_PH_COK_NEW</t>
+  </si>
+  <si>
     <t>IND_OTH_PH_ELC_NEW</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>IND_IS_ELC</t>
+  </si>
+  <si>
+    <t>IND_HH2</t>
   </si>
   <si>
     <t>IND_NF_ELC</t>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L202"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,22 +922,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>48.43909645145224</v>
+        <v>47.49858612110488</v>
       </c>
       <c r="E2">
-        <v>29.60857292211187</v>
+        <v>29.60857292211186</v>
       </c>
       <c r="F2">
-        <v>30.57620150941315</v>
+        <v>31.76638828504206</v>
       </c>
       <c r="G2">
         <v>28.12814427600627</v>
       </c>
       <c r="H2">
-        <v>14.06407213800314</v>
+        <v>14.11777132253006</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -960,22 +960,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3">
-        <v>7.339257038098824</v>
+        <v>7.196755472894679</v>
       </c>
       <c r="E3">
-        <v>4.486147412441193</v>
+        <v>4.48614741244119</v>
       </c>
       <c r="F3">
-        <v>4.246694654085156</v>
+        <v>4.411998372922505</v>
       </c>
       <c r="G3">
-        <v>4.261840041819131</v>
+        <v>4.261840041819168</v>
       </c>
       <c r="H3">
-        <v>2.130920020909567</v>
+        <v>2.130920020909535</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -998,19 +998,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>4.403554222859286</v>
+        <v>4.318053283736806</v>
       </c>
       <c r="E4">
-        <v>2.691688447464715</v>
+        <v>2.691688447464714</v>
       </c>
       <c r="F4">
-        <v>2.548016792451094</v>
+        <v>2.647199023753503</v>
       </c>
       <c r="G4">
-        <v>2.557104025091478</v>
+        <v>2.557104025091495</v>
       </c>
       <c r="H4">
         <v>1.27855201254574</v>
@@ -1036,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2.691688447464728</v>
+        <v>2.691688447464727</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1074,22 +1074,22 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>17.60247408017625</v>
+        <v>17.26069832619058</v>
       </c>
       <c r="E6">
-        <v>8.972294824882384</v>
+        <v>8.972294824882381</v>
       </c>
       <c r="F6">
-        <v>8.493389308170309</v>
+        <v>8.823996745845006</v>
       </c>
       <c r="G6">
         <v>8.523680083638263</v>
       </c>
       <c r="H6">
-        <v>4.261840041819116</v>
+        <v>4.261840041819115</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>39.63198800573365</v>
+        <v>38.86247955363126</v>
       </c>
       <c r="E7">
-        <v>24.22519602718244</v>
+        <v>24.22519602718243</v>
       </c>
       <c r="F7">
-        <v>22.93215113205985</v>
+        <v>23.82479121378153</v>
       </c>
       <c r="G7">
         <v>23.01393622582331</v>
       </c>
       <c r="H7">
-        <v>11.50696811291166</v>
+        <v>11.50696811291169</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8">
-        <v>9.898746550137993</v>
+        <v>9.898746550137966</v>
       </c>
       <c r="E8">
-        <v>7.918997240110392</v>
+        <v>7.918997240110396</v>
       </c>
       <c r="F8">
-        <v>5.939247930082778</v>
+        <v>5.939247930082754</v>
       </c>
       <c r="G8">
         <v>3.959498620055199</v>
       </c>
       <c r="H8">
-        <v>1.979749310027598</v>
+        <v>1.979749310027599</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1188,19 +1188,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>2.28432612695492</v>
+        <v>2.284326126954923</v>
       </c>
       <c r="E9">
-        <v>1.827460901563692</v>
+        <v>1.827460901563937</v>
       </c>
       <c r="F9">
         <v>1.370595676172953</v>
       </c>
       <c r="G9">
-        <v>0.9137304507819687</v>
+        <v>0.9137304507819689</v>
       </c>
       <c r="H9">
         <v>0.4568652253909841</v>
@@ -1226,22 +1226,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>1.522884084636615</v>
       </c>
       <c r="E10">
-        <v>1.218307267709359</v>
+        <v>1.218307267709292</v>
       </c>
       <c r="F10">
         <v>0.9137304507819689</v>
       </c>
       <c r="G10">
-        <v>0.6091536338546459</v>
+        <v>0.609153633854646</v>
       </c>
       <c r="H10">
-        <v>0.3045768169273228</v>
+        <v>0.3045768169273229</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1264,22 +1264,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11">
-        <v>8.375862465501372</v>
+        <v>8.375862465501353</v>
       </c>
       <c r="E11">
-        <v>6.700689972400352</v>
+        <v>6.700689972401104</v>
       </c>
       <c r="F11">
         <v>5.025517479300828</v>
       </c>
       <c r="G11">
-        <v>3.350344986200553</v>
+        <v>3.350344986200544</v>
       </c>
       <c r="H11">
-        <v>1.675172493100276</v>
+        <v>1.675172493100275</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>10.6601885924563</v>
       </c>
       <c r="E12">
-        <v>8.528150873965007</v>
+        <v>8.528150873965041</v>
       </c>
       <c r="F12">
         <v>6.396113155473781</v>
@@ -1317,7 +1317,7 @@
         <v>4.264075436982521</v>
       </c>
       <c r="H12">
-        <v>2.132037718491259</v>
+        <v>2.13203771849126</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1340,19 +1340,19 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>110.9311274509804</v>
       </c>
       <c r="E13">
-        <v>88.74490196078429</v>
+        <v>88.7449019607843</v>
       </c>
       <c r="F13">
         <v>66.55867647058824</v>
       </c>
       <c r="G13">
-        <v>44.37245098039217</v>
+        <v>44.37245098039215</v>
       </c>
       <c r="H13">
         <v>22.18622549019608</v>
@@ -1378,16 +1378,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14">
-        <v>4.870147058823528</v>
+        <v>4.870147058823529</v>
       </c>
       <c r="E14">
         <v>3.896117647058824</v>
       </c>
       <c r="F14">
-        <v>2.922088235294117</v>
+        <v>2.922088235294118</v>
       </c>
       <c r="G14">
         <v>1.948058823529412</v>
@@ -1416,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15">
-        <v>9.19916666666667</v>
+        <v>9.199166666666667</v>
       </c>
       <c r="E15">
         <v>7.359333333333334</v>
@@ -1431,7 +1431,7 @@
         <v>3.679666666666667</v>
       </c>
       <c r="H15">
-        <v>1.839833333333333</v>
+        <v>1.839833333333332</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1454,19 +1454,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>8.822377622377614</v>
+        <v>8.822377622377619</v>
       </c>
       <c r="E16">
-        <v>7.057902097902095</v>
+        <v>7.057902097902096</v>
       </c>
       <c r="F16">
-        <v>5.29342657342657</v>
+        <v>5.293426573426562</v>
       </c>
       <c r="G16">
-        <v>3.528951048951048</v>
+        <v>3.528951048951049</v>
       </c>
       <c r="H16">
         <v>1.764475524475524</v>
@@ -1492,10 +1492,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17">
-        <v>0.6616783216783216</v>
+        <v>0.6616783216783215</v>
       </c>
       <c r="E17">
         <v>0.5293426573426574</v>
@@ -1530,28 +1530,28 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18">
-        <v>261.0195504679274</v>
+        <v>261.2227398200145</v>
       </c>
       <c r="E18">
-        <v>0.4914859254442523</v>
+        <v>228.859226269914</v>
       </c>
       <c r="F18">
-        <v>0.003689791757374827</v>
+        <v>228.7583298357579</v>
       </c>
       <c r="G18">
-        <v>33.79691707283997</v>
+        <v>262.0825463396051</v>
       </c>
       <c r="H18">
-        <v>41.69042632189883</v>
+        <v>257.4255697738758</v>
       </c>
       <c r="I18">
-        <v>47.2131482383281</v>
+        <v>238.6913256590074</v>
       </c>
       <c r="J18">
-        <v>28.13442614357276</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>13.78658536585366</v>
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20">
         <v>4.210843373493976</v>
@@ -1621,10 +1621,10 @@
         <v>2.105421686746988</v>
       </c>
       <c r="H20">
-        <v>2.105421686746988</v>
+        <v>1.403614457831325</v>
       </c>
       <c r="I20">
-        <v>1.333433734939759</v>
+        <v>0.7018072289156627</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1644,16 +1644,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21">
-        <v>61.84117647058823</v>
+        <v>77.86525984769412</v>
       </c>
       <c r="E21">
         <v>51.53431372549021</v>
       </c>
       <c r="F21">
-        <v>48.11318200303058</v>
+        <v>41.22745098039216</v>
       </c>
       <c r="G21">
         <v>30.92058823529412</v>
@@ -1682,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>5.99390243902439</v>
@@ -1720,7 +1720,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23">
         <v>0.3719512195121952</v>
@@ -1758,10 +1758,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24">
-        <v>22.74516457293312</v>
+        <v>33.45888725324502</v>
       </c>
       <c r="E24">
         <v>17.75602409638554</v>
@@ -1796,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25">
         <v>0.8253012048192772</v>
@@ -1834,7 +1834,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <v>25.390625</v>
@@ -1872,7 +1872,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27">
         <v>7.623529411764707</v>
@@ -1910,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28">
         <v>168.5681395348837</v>
@@ -1948,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29">
         <v>8.228999999999999</v>
@@ -1986,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2062,34 +2062,34 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32">
-        <v>11.96509169523809</v>
+        <v>11.96509169523799</v>
       </c>
       <c r="E32">
-        <v>58.29913748670359</v>
+        <v>58.29913748670369</v>
       </c>
       <c r="F32">
-        <v>88.03078919499629</v>
+        <v>87.81621771427051</v>
       </c>
       <c r="G32">
-        <v>155.4239439111614</v>
+        <v>155.1823752147693</v>
       </c>
       <c r="H32">
-        <v>221.7178063140395</v>
+        <v>211.5560824910441</v>
       </c>
       <c r="I32">
-        <v>245.7066394220111</v>
+        <v>245.4822854379476</v>
       </c>
       <c r="J32">
-        <v>252.200172984501</v>
+        <v>249.0334902572244</v>
       </c>
       <c r="K32">
-        <v>252.2001729845011</v>
+        <v>249.0334902572245</v>
       </c>
       <c r="L32">
-        <v>254.9320500910075</v>
+        <v>79.83631745382169</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2100,7 +2100,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2109,22 +2109,22 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>3.375048644081825</v>
+        <v>3.57198307660894</v>
       </c>
       <c r="G33">
-        <v>3.375048644081825</v>
+        <v>3.571983076608526</v>
       </c>
       <c r="H33">
-        <v>3.375048644081826</v>
+        <v>3.571983076608941</v>
       </c>
       <c r="I33">
-        <v>3.375048644081826</v>
+        <v>3.57198307660894</v>
       </c>
       <c r="J33">
-        <v>0.3572809300733633</v>
+        <v>3.57198307660894</v>
       </c>
       <c r="K33">
-        <v>3.375048644081825</v>
+        <v>3.57198307660894</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2150,22 +2150,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>104.9050130058746</v>
+        <v>110.8776806647349</v>
       </c>
       <c r="H34">
-        <v>176.9675042837843</v>
+        <v>176.9675042837844</v>
       </c>
       <c r="I34">
-        <v>179.7560551875845</v>
+        <v>184.2237000790301</v>
       </c>
       <c r="J34">
-        <v>179.7560551875843</v>
+        <v>184.2237000790301</v>
       </c>
       <c r="K34">
-        <v>198.3727048180324</v>
+        <v>158.3618411799352</v>
       </c>
       <c r="L34">
-        <v>203.7129379275439</v>
+        <v>75.13649700449577</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2176,34 +2176,34 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35">
-        <v>88.0257341090752</v>
+        <v>91.22891987989931</v>
       </c>
       <c r="E35">
-        <v>157.1903378087538</v>
+        <v>157.2779760772792</v>
       </c>
       <c r="F35">
-        <v>158.7660309503561</v>
+        <v>155.2013863521906</v>
       </c>
       <c r="G35">
-        <v>113.2521900644329</v>
+        <v>109.6276423535524</v>
       </c>
       <c r="H35">
-        <v>103.2756738083188</v>
+        <v>106.3944429592123</v>
       </c>
       <c r="I35">
-        <v>157.7827562724951</v>
+        <v>158.7096357640986</v>
       </c>
       <c r="J35">
-        <v>160.7687006684061</v>
+        <v>157.9281260753815</v>
       </c>
       <c r="K35">
-        <v>148.0529656371489</v>
+        <v>171.3767270004853</v>
       </c>
       <c r="L35">
-        <v>146.9361338566759</v>
+        <v>196.9116546480882</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2214,25 +2214,25 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>85.72958289866529</v>
+        <v>88.24910396313398</v>
       </c>
       <c r="F36">
-        <v>80.557859117243</v>
+        <v>82.92538752566077</v>
       </c>
       <c r="G36">
-        <v>75.38215402421068</v>
+        <v>77.59757276914408</v>
       </c>
       <c r="H36">
-        <v>70.21441155439844</v>
+        <v>72.27795465071432</v>
       </c>
       <c r="I36">
-        <v>70.21441155439842</v>
+        <v>72.27795465071431</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2252,34 +2252,34 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37">
-        <v>23.74402799999992</v>
+        <v>23.74402799999975</v>
       </c>
       <c r="E37">
-        <v>22.96797859999996</v>
+        <v>19.8685301929096</v>
       </c>
       <c r="F37">
-        <v>84.6150339307858</v>
+        <v>82.73258781683758</v>
       </c>
       <c r="G37">
-        <v>87.77686616808144</v>
+        <v>86.78706013585469</v>
       </c>
       <c r="H37">
-        <v>102.5274516120524</v>
+        <v>101.5376455798251</v>
       </c>
       <c r="I37">
-        <v>117.2780370560232</v>
+        <v>80.89781517982527</v>
       </c>
       <c r="J37">
-        <v>120.4333549708348</v>
+        <v>80.89781517982556</v>
       </c>
       <c r="K37">
-        <v>117.4155872568264</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>120.7906359009083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2290,7 +2290,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2299,25 +2299,25 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.411235711333</v>
+        <v>12.81188559587367</v>
       </c>
       <c r="G38">
-        <v>112.929602567339</v>
+        <v>111.6122158374358</v>
       </c>
       <c r="H38">
-        <v>176.553242670157</v>
+        <v>108.884304165902</v>
       </c>
       <c r="I38">
-        <v>229.5911525369262</v>
+        <v>51.73038444423121</v>
       </c>
       <c r="J38">
-        <v>229.5911525369276</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>250.2020750651897</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>272.571206694369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2328,7 +2328,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>122.008938915846</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>377.1164196688454</v>
       </c>
       <c r="J39">
-        <v>120.8968206735002</v>
+        <v>596.6875473993921</v>
       </c>
       <c r="K39">
-        <v>83.24657715583278</v>
+        <v>730.118258162911</v>
       </c>
       <c r="L39">
-        <v>34.62645504524018</v>
+        <v>738.4150046555903</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2366,34 +2366,34 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.431385600156237</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.8729847470210672</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>14.37583128827797</v>
+        <v>12.42652939860616</v>
       </c>
       <c r="H40">
-        <v>14.37537426709556</v>
+        <v>12.42705610813629</v>
       </c>
       <c r="I40">
-        <v>14.37537426709556</v>
+        <v>12.42613436645857</v>
       </c>
       <c r="J40">
-        <v>14.37537426709556</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>13.00153148002952</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>6.500765740014762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2404,31 +2404,31 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>1.1067783943241</v>
+        <v>1.10677839432277</v>
       </c>
       <c r="E41">
-        <v>9.991547299020285</v>
+        <v>11.36199662431842</v>
       </c>
       <c r="F41">
-        <v>18.46070901161504</v>
+        <v>19.33558725063333</v>
       </c>
       <c r="G41">
-        <v>17.35393027942923</v>
+        <v>19.33558725063333</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>9.64699201648239</v>
+        <v>5.179347125036676</v>
       </c>
       <c r="J41">
-        <v>17.35393061729095</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0.02529518196793309</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2442,34 +2442,34 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.09000900090019455</v>
+        <v>0.0900090009000824</v>
       </c>
       <c r="F42">
-        <v>0.09000900090259241</v>
+        <v>0.09000900090003999</v>
       </c>
       <c r="G42">
-        <v>0.09000953655330718</v>
+        <v>0.09000900090006871</v>
       </c>
       <c r="H42">
-        <v>43.71832031956682</v>
+        <v>46.7577270233087</v>
       </c>
       <c r="I42">
-        <v>43.62831131866666</v>
+        <v>53.91828139910099</v>
       </c>
       <c r="J42">
-        <v>32.42653864053186</v>
+        <v>83.50492236337023</v>
       </c>
       <c r="K42">
-        <v>63.55812453423293</v>
+        <v>84.66115475926559</v>
       </c>
       <c r="L42">
-        <v>75.06859295012505</v>
+        <v>85.62320731850807</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2480,34 +2480,34 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>25.85323115526981</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>25.85323115526982</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>25.85323115526981</v>
       </c>
       <c r="H43">
-        <v>0.0007522963636363635</v>
+        <v>25.85323115526981</v>
       </c>
       <c r="I43">
-        <v>0.0007522963636363637</v>
+        <v>25.85323115526981</v>
       </c>
       <c r="J43">
-        <v>0.02910523636363608</v>
+        <v>238.3555136691854</v>
       </c>
       <c r="K43">
-        <v>0.02910523636363506</v>
+        <v>231.3236060570653</v>
       </c>
       <c r="L43">
-        <v>0.02910523636361911</v>
+        <v>232.8505924902225</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2518,34 +2518,34 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>97.08636059131096</v>
       </c>
       <c r="E44">
-        <v>247.770798988714</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>247.7707989887132</v>
+        <v>97.08636059131096</v>
       </c>
       <c r="G44">
-        <v>247.770798988714</v>
+        <v>16.33104623434687</v>
       </c>
       <c r="H44">
-        <v>247.770798988714</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>247.7707989887139</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>266.894402841777</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>283.6004934638945</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>289.2673914839682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2556,19 +2556,19 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D45">
-        <v>111.4538210223462</v>
+        <v>45.85846025982502</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>45.85846025982502</v>
       </c>
       <c r="F45">
-        <v>111.4538210223462</v>
+        <v>21.71605542367413</v>
       </c>
       <c r="G45">
-        <v>27.70933123215531</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2594,34 +2594,34 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46">
-        <v>56.23040718615117</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>56.23040718615117</v>
+        <v>164.8327243095613</v>
       </c>
       <c r="F46">
-        <v>32.20403830694706</v>
+        <v>105.9114767079366</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>260.1213850994454</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>306.7587475249845</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>336.3819494576674</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>364.6100373499372</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>369.6585294043117</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>373.8591682364949</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2632,34 +2632,34 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>347.7523624990843</v>
       </c>
       <c r="E47">
-        <v>153.8577572130997</v>
+        <v>378.6220588066568</v>
       </c>
       <c r="F47">
-        <v>72.80528509716538</v>
+        <v>391.2577269974732</v>
       </c>
       <c r="G47">
-        <v>248.0815719085892</v>
+        <v>445.3850390515902</v>
       </c>
       <c r="H47">
-        <v>306.0814219435895</v>
+        <v>485.7791811473555</v>
       </c>
       <c r="I47">
-        <v>335.7723564344111</v>
+        <v>546.3239105489095</v>
       </c>
       <c r="J47">
-        <v>364.610037349937</v>
+        <v>581.8946369607374</v>
       </c>
       <c r="K47">
-        <v>369.6585294043115</v>
+        <v>605.2786507366883</v>
       </c>
       <c r="L47">
-        <v>373.8591682364947</v>
+        <v>611.4789898067484</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2670,34 +2670,34 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D48">
-        <v>347.8899658433459</v>
+        <v>248.7088114286975</v>
       </c>
       <c r="E48">
-        <v>378.4398352704425</v>
+        <v>206.3757716049383</v>
       </c>
       <c r="F48">
-        <v>390.9789086272982</v>
+        <v>165.1006172839506</v>
       </c>
       <c r="G48">
-        <v>445.1994295905574</v>
+        <v>124.9976373697426</v>
       </c>
       <c r="H48">
-        <v>468.9499001831737</v>
+        <v>112.2888074806446</v>
       </c>
       <c r="I48">
-        <v>494.5134932732122</v>
+        <v>56.14440374032228</v>
       </c>
       <c r="J48">
-        <v>516.2658709998639</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>515.4382745784692</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>513.3699584399089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2705,28 +2705,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49">
-        <v>265.7241773779773</v>
+        <v>20.50765536723172</v>
       </c>
       <c r="E49">
-        <v>206.3757716049383</v>
+        <v>17.08971280602637</v>
       </c>
       <c r="F49">
-        <v>165.1006172839506</v>
+        <v>13.6717702448211</v>
       </c>
       <c r="G49">
-        <v>124.9976373697426</v>
+        <v>10.25382768361582</v>
       </c>
       <c r="H49">
-        <v>109.1113879922512</v>
+        <v>7.779907253946436</v>
       </c>
       <c r="I49">
-        <v>56.14440374032225</v>
+        <v>3.417942561205265</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2743,28 +2743,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50">
-        <v>20.50765536723164</v>
+        <v>58.40484306340239</v>
       </c>
       <c r="E50">
-        <v>17.08971280602641</v>
+        <v>48.67070255283533</v>
       </c>
       <c r="F50">
-        <v>13.67177024482109</v>
+        <v>38.93656204226831</v>
       </c>
       <c r="G50">
-        <v>10.25382768361582</v>
+        <v>29.20242153170119</v>
       </c>
       <c r="H50">
-        <v>6.835885122410547</v>
+        <v>19.46828102113415</v>
       </c>
       <c r="I50">
-        <v>10.2556266007533</v>
+        <v>9.734140510567066</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2781,28 +2781,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51">
-        <v>58.4048430634024</v>
+        <v>239.7356905210295</v>
       </c>
       <c r="E51">
-        <v>48.67070255283533</v>
+        <v>199.7797421008578</v>
       </c>
       <c r="F51">
-        <v>38.93656204226827</v>
+        <v>159.8237936806864</v>
       </c>
       <c r="G51">
-        <v>29.20242153170119</v>
+        <v>119.8678452605148</v>
       </c>
       <c r="H51">
-        <v>19.46828102113413</v>
+        <v>92.64324278790333</v>
       </c>
       <c r="I51">
-        <v>9.73414051056707</v>
+        <v>39.95594842017159</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2819,28 +2819,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52">
-        <v>239.7356905210295</v>
+        <v>112.5900770889223</v>
       </c>
       <c r="E52">
-        <v>199.7797421008579</v>
+        <v>58.9645061728395</v>
       </c>
       <c r="F52">
-        <v>159.8237936806863</v>
+        <v>47.17160493827161</v>
       </c>
       <c r="G52">
-        <v>119.8678452605147</v>
+        <v>99.32732967357185</v>
       </c>
       <c r="H52">
-        <v>96.76468440783253</v>
+        <v>23.58580246913581</v>
       </c>
       <c r="I52">
-        <v>39.95594842017159</v>
+        <v>18.63058527411593</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2857,28 +2857,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
         <v>155</v>
       </c>
       <c r="D53">
-        <v>109.9908528883755</v>
+        <v>172.9359008160702</v>
       </c>
       <c r="E53">
-        <v>58.9645061728395</v>
+        <v>144.1132506800586</v>
       </c>
       <c r="F53">
-        <v>47.17160493827161</v>
+        <v>115.2906005440469</v>
       </c>
       <c r="G53">
-        <v>99.32732967357185</v>
+        <v>86.46795040803516</v>
       </c>
       <c r="H53">
-        <v>23.58580246913579</v>
+        <v>57.64530027202344</v>
       </c>
       <c r="I53">
-        <v>11.7929012345679</v>
+        <v>28.82265013601172</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2895,28 +2895,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
         <v>156</v>
       </c>
       <c r="D54">
-        <v>172.9359008160704</v>
+        <v>96.94527030221684</v>
       </c>
       <c r="E54">
-        <v>144.1132506800585</v>
+        <v>116.5298545720864</v>
       </c>
       <c r="F54">
-        <v>115.2906005440469</v>
+        <v>93.22388365766898</v>
       </c>
       <c r="G54">
-        <v>86.46795040803516</v>
+        <v>4.797112366603892</v>
       </c>
       <c r="H54">
-        <v>57.64530027202345</v>
+        <v>3.198074911069262</v>
       </c>
       <c r="I54">
-        <v>28.82265013601172</v>
+        <v>1.599037455534631</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2936,25 +2936,25 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D55">
-        <v>82.52912855348401</v>
+        <v>4.109216467958285</v>
       </c>
       <c r="E55">
-        <v>116.5298545720862</v>
+        <v>3.225633383010443</v>
       </c>
       <c r="F55">
-        <v>93.22388365766923</v>
+        <v>2.617958271237054</v>
       </c>
       <c r="G55">
-        <v>4.797112366603892</v>
+        <v>1.616393889716806</v>
       </c>
       <c r="H55">
-        <v>3.198074911069262</v>
+        <v>0.8091906110282779</v>
       </c>
       <c r="I55">
-        <v>1.599037455534631</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2971,25 +2971,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D56">
-        <v>4.118888152011923</v>
+        <v>0.24291825633383</v>
       </c>
       <c r="E56">
-        <v>3.225633383010443</v>
+        <v>0.264977645305515</v>
       </c>
       <c r="F56">
-        <v>2.617958271237009</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1.616393889716809</v>
+        <v>0.114130066388556</v>
       </c>
       <c r="H56">
-        <v>0.806408345752592</v>
+        <v>0.06346214605066797</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3009,25 +3009,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D57">
-        <v>0.1774567335049463</v>
+        <v>0.1152757078986592</v>
       </c>
       <c r="E57">
-        <v>0.264977645305515</v>
+        <v>0.09222056631892729</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.06916542473919775</v>
       </c>
       <c r="G57">
-        <v>0.1289116244411294</v>
+        <v>0.04611028315946249</v>
       </c>
       <c r="H57">
-        <v>0.06624441132637721</v>
+        <v>0.02305514157973068</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3050,25 +3050,25 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D58">
-        <v>0.1152757078986587</v>
+        <v>105.9813637325784</v>
       </c>
       <c r="E58">
-        <v>0.09222056631892731</v>
+        <v>72.33314538864278</v>
       </c>
       <c r="F58">
-        <v>0.06916542473919654</v>
+        <v>106.9374788562223</v>
       </c>
       <c r="G58">
-        <v>0.04611028315946256</v>
+        <v>43.92570589262652</v>
       </c>
       <c r="H58">
-        <v>0.02305514157973129</v>
+        <v>29.96374836890858</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>14.98187418445429</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3085,28 +3085,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D59">
-        <v>121.4684095046315</v>
+        <v>29.6930894289198</v>
       </c>
       <c r="E59">
-        <v>72.33314538864278</v>
+        <v>61.33870318163513</v>
       </c>
       <c r="F59">
-        <v>106.9374788562223</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>44.06234522754732</v>
+        <v>35.41928398374431</v>
       </c>
       <c r="H59">
-        <v>28.93325815545711</v>
+        <v>23.50499105920258</v>
       </c>
       <c r="I59">
-        <v>14.46662907772856</v>
+        <v>11.75249552960129</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3123,28 +3123,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D60">
-        <v>14.20604365686669</v>
+        <v>13.63408779701974</v>
       </c>
       <c r="E60">
-        <v>61.33870318163512</v>
+        <v>11.36173983084978</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>9.089391864679826</v>
       </c>
       <c r="G60">
-        <v>36.14076391461941</v>
+        <v>6.817043898509867</v>
       </c>
       <c r="H60">
-        <v>24.53548127265406</v>
+        <v>4.544695932339911</v>
       </c>
       <c r="I60">
-        <v>12.26774063632703</v>
+        <v>2.272347966169956</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3164,25 +3164,25 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61">
-        <v>13.63408779701973</v>
+        <v>85.76433502742641</v>
       </c>
       <c r="E61">
-        <v>11.36173983084978</v>
+        <v>50.45037931266093</v>
       </c>
       <c r="F61">
-        <v>9.089391864679824</v>
+        <v>5.218750699652972</v>
       </c>
       <c r="G61">
-        <v>6.817043898509864</v>
+        <v>3.479167133101981</v>
       </c>
       <c r="H61">
-        <v>4.544695932339911</v>
+        <v>1.739583566550992</v>
       </c>
       <c r="I61">
-        <v>2.272347966169956</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3199,25 +3199,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62">
-        <v>135.1932213091525</v>
+        <v>16.9679167133102</v>
       </c>
       <c r="E62">
-        <v>50.45037931266091</v>
+        <v>7.144385984551663</v>
       </c>
       <c r="F62">
-        <v>5.218750699652972</v>
+        <v>5.358289488413747</v>
       </c>
       <c r="G62">
-        <v>3.479167133101981</v>
+        <v>23.94128395835666</v>
       </c>
       <c r="H62">
-        <v>1.739583566550992</v>
+        <v>25.52629575730383</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D63">
-        <v>16.96791671331021</v>
+        <v>106.4872407120453</v>
       </c>
       <c r="E63">
-        <v>7.144385984551662</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>5.358289488413746</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>33.24387768951624</v>
+        <v>23.83891267004195</v>
       </c>
       <c r="H63">
-        <v>25.52629588103655</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3278,34 +3278,34 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64">
-        <v>96.42204802517682</v>
+        <v>180.909337515696</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>238.5154341616731</v>
       </c>
       <c r="F64">
-        <v>1.816965845812537</v>
+        <v>293.1882653471145</v>
       </c>
       <c r="G64">
-        <v>24.37759179277939</v>
+        <v>357.1553842691125</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>402.8105743443056</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>436.2303946147163</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>474.6493535515634</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>526.0660445052</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>526.0660445051999</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3316,34 +3316,34 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65">
-        <v>134.7575279606847</v>
+        <v>141.3161627906977</v>
       </c>
       <c r="E65">
-        <v>238.497463101067</v>
+        <v>113.0529302325581</v>
       </c>
       <c r="F65">
-        <v>291.3533284406948</v>
+        <v>84.7896976744186</v>
       </c>
       <c r="G65">
-        <v>342.4805120279998</v>
+        <v>56.52646511627906</v>
       </c>
       <c r="H65">
-        <v>403.4212026062725</v>
+        <v>28.26323255813954</v>
       </c>
       <c r="I65">
-        <v>436.7925281899605</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>466.37011179768</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>485.9466817091627</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>510.3546083125028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3354,22 +3354,22 @@
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D66">
-        <v>141.3161627906977</v>
+        <v>5.095144409730072</v>
       </c>
       <c r="E66">
-        <v>113.0529302325581</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>84.7896976744186</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>56.52646511627906</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>28.26323255813954</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3389,25 +3389,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D67">
-        <v>5.864652861832602</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>6.182999999999999</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>4.122</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2.060999999999999</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3427,25 +3427,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>5.209855590269926</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>8.244</v>
       </c>
       <c r="F68">
-        <v>6.182999999999999</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>4.122</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>2.060999999999999</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>149</v>
       </c>
       <c r="D69">
-        <v>4.440347138167396</v>
+        <v>29.35935945927688</v>
       </c>
       <c r="E69">
-        <v>8.244</v>
+        <v>34.58351967399681</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>18.46073840687266</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>56.85053160222336</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>62.69472592018693</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>115.9667347382709</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>162.5441444648918</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>91.60543097872028</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3503,37 +3503,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D70">
-        <v>29.35935945927669</v>
+        <v>47.30119023994607</v>
       </c>
       <c r="E70">
-        <v>34.58351967399739</v>
+        <v>55.71789280810595</v>
       </c>
       <c r="F70">
-        <v>18.46073840687432</v>
+        <v>29.74230076662818</v>
       </c>
       <c r="G70">
-        <v>56.80354143023315</v>
+        <v>91.59252313691543</v>
       </c>
       <c r="H70">
-        <v>62.69333932494794</v>
+        <v>101.008169538079</v>
       </c>
       <c r="I70">
-        <v>115.96534814303</v>
+        <v>186.835294856103</v>
       </c>
       <c r="J70">
-        <v>164.6861259552051</v>
+        <v>261.8766771934367</v>
       </c>
       <c r="K70">
-        <v>104.9216753900467</v>
+        <v>147.5865276879382</v>
       </c>
       <c r="L70">
-        <v>53.74813981233129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3541,37 +3541,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D71">
-        <v>47.30119023994578</v>
+        <v>0.8155377627576872</v>
       </c>
       <c r="E71">
-        <v>55.71789280810691</v>
+        <v>0.9606533242776879</v>
       </c>
       <c r="F71">
-        <v>29.74230076663084</v>
+        <v>0.5127982890797963</v>
       </c>
       <c r="G71">
-        <v>91.51681674870903</v>
+        <v>1.579181433395092</v>
       </c>
       <c r="H71">
-        <v>101.0059355790828</v>
+        <v>1.741520164449634</v>
       </c>
       <c r="I71">
-        <v>186.8330608971038</v>
+        <v>3.221298187174186</v>
       </c>
       <c r="J71">
-        <v>265.327647372275</v>
+        <v>4.515115124024764</v>
       </c>
       <c r="K71">
-        <v>169.0404770172975</v>
+        <v>2.544595304964453</v>
       </c>
       <c r="L71">
-        <v>86.59422525320041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3582,34 +3582,34 @@
         <v>52</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D72">
-        <v>0.8155377627576859</v>
+        <v>0.1534100684014263</v>
       </c>
       <c r="E72">
-        <v>0.9606533242777056</v>
+        <v>6.482031609415804</v>
       </c>
       <c r="F72">
-        <v>0.5127982890798419</v>
+        <v>11.95194470816647</v>
       </c>
       <c r="G72">
-        <v>1.577876150839808</v>
+        <v>16.35803099950531</v>
       </c>
       <c r="H72">
-        <v>1.74148164791522</v>
+        <v>23.13612558586724</v>
       </c>
       <c r="I72">
-        <v>3.221259670639739</v>
+        <v>25.3652981925092</v>
       </c>
       <c r="J72">
-        <v>4.574614609866847</v>
+        <v>23.81806151313717</v>
       </c>
       <c r="K72">
-        <v>2.914490983056852</v>
+        <v>24.85303546378456</v>
       </c>
       <c r="L72">
-        <v>1.493003883675869</v>
+        <v>22.38031663230712</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3617,37 +3617,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D73">
-        <v>0.1565844765469592</v>
+        <v>0.4567330901258648</v>
       </c>
       <c r="E73">
-        <v>6.479977773917935</v>
+        <v>17.82558692589345</v>
       </c>
       <c r="F73">
-        <v>11.94989087266858</v>
+        <v>32.86784794745777</v>
       </c>
       <c r="G73">
-        <v>18.64496679295642</v>
+        <v>52.25414228967795</v>
       </c>
       <c r="H73">
-        <v>22.58763491489158</v>
+        <v>67.18056505512389</v>
       </c>
       <c r="I73">
-        <v>25.36529819250918</v>
+        <v>69.75457002940021</v>
       </c>
       <c r="J73">
-        <v>26.78443802433191</v>
+        <v>73.65720456691263</v>
       </c>
       <c r="K73">
-        <v>28.40346910146673</v>
+        <v>78.10954002903722</v>
       </c>
       <c r="L73">
-        <v>30.17064905290618</v>
+        <v>70.33813798725097</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3658,34 +3658,34 @@
         <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D74">
-        <v>0.456733090125865</v>
+        <v>10.76451646711361</v>
       </c>
       <c r="E74">
-        <v>17.81993887827431</v>
+        <v>59.34255900656307</v>
       </c>
       <c r="F74">
-        <v>32.86219989983859</v>
+        <v>95.4141737894027</v>
       </c>
       <c r="G74">
-        <v>51.27365868063011</v>
+        <v>148.7696209983439</v>
       </c>
       <c r="H74">
-        <v>67.74983915669935</v>
+        <v>163.3082005193536</v>
       </c>
       <c r="I74">
-        <v>69.75457002940023</v>
+        <v>199.9149965622149</v>
       </c>
       <c r="J74">
-        <v>73.65720456691264</v>
+        <v>231.6836624008324</v>
       </c>
       <c r="K74">
-        <v>78.10954002903723</v>
+        <v>237.4644225037729</v>
       </c>
       <c r="L74">
-        <v>82.96928489549191</v>
+        <v>247.9004987392644</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3693,37 +3693,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D75">
-        <v>10.76451646711533</v>
+        <v>1.477482652348927</v>
       </c>
       <c r="E75">
-        <v>59.34255900656306</v>
+        <v>8.145057118547872</v>
       </c>
       <c r="F75">
-        <v>95.41417378940199</v>
+        <v>13.0960630691337</v>
       </c>
       <c r="G75">
-        <v>145.5707316708524</v>
+        <v>20.41935974487073</v>
       </c>
       <c r="H75">
-        <v>163.990081077002</v>
+        <v>22.41485105167598</v>
       </c>
       <c r="I75">
-        <v>200.5968771198638</v>
+        <v>27.43931325363733</v>
       </c>
       <c r="J75">
-        <v>232.3655429584801</v>
+        <v>31.7997183687417</v>
       </c>
       <c r="K75">
-        <v>237.4644225037729</v>
+        <v>32.59315602992961</v>
       </c>
       <c r="L75">
-        <v>247.9004987392645</v>
+        <v>34.02555865048726</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3734,34 +3734,34 @@
         <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D76">
-        <v>1.477482652349163</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>8.145057118547872</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>13.09606306913361</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>19.9802965038425</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>22.50844250076497</v>
+        <v>0.002817321867321909</v>
       </c>
       <c r="I76">
-        <v>27.53290470272641</v>
+        <v>0.02506142506142508</v>
       </c>
       <c r="J76">
-        <v>31.89330981783058</v>
+        <v>0.06026855036855036</v>
       </c>
       <c r="K76">
-        <v>32.59315602992962</v>
+        <v>0.3049140049140049</v>
       </c>
       <c r="L76">
-        <v>34.02555865048729</v>
+        <v>1.232887608208569</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3769,10 +3769,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>0.09638415233415362</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.7685503685503687</v>
       </c>
       <c r="J77">
-        <v>3.353311043672979E-08</v>
+        <v>4.515233415233416</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>28.05208845208846</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>113.4256599551883</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3807,10 +3807,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>6.356218030310221E-07</v>
+        <v>4.841290898959828</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3845,10 +3845,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3860,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.003483606557381906</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.003483606557245827</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.02541235348612395</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.147586825957475</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>0.3050309810555712</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.9304371356830519</v>
+        <v>79.39717074294117</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3883,10 +3883,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.1068306010930452</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.10683060109084</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.7793121735744687</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>4.525995220257515</v>
+        <v>0.5033070866141731</v>
       </c>
       <c r="K80">
-        <v>28.67291221922369</v>
+        <v>3.126929133858268</v>
       </c>
       <c r="L80">
-        <v>36.36556619338447</v>
+        <v>4.003216980730468</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3921,37 +3921,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>231.2145201384537</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>195.5597358200016</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>197.3640636909186</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>133.4408721185602</v>
       </c>
       <c r="H81">
-        <v>3.696466229995908E-08</v>
+        <v>101.8113483602936</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>77.82527398122394</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>25.5091249944903</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>14.33574819698283</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>14.14309700819702</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3959,37 +3959,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>13.7644410677835</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>26.13510906405203</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>28.37107194821481</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>35.60693766099522</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>39.56183928648738</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>44.02604650520939</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>43.76714569141541</v>
       </c>
       <c r="K82">
-        <v>9.898636378422993E-07</v>
+        <v>43.69325672435208</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>43.59889045743303</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3997,37 +3997,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D83">
-        <v>231.2145201384538</v>
+        <v>35.82778702163061</v>
       </c>
       <c r="E83">
-        <v>195.5597358200017</v>
+        <v>28.6622296173045</v>
       </c>
       <c r="F83">
-        <v>197.3640636909188</v>
+        <v>21.49667221297836</v>
       </c>
       <c r="G83">
-        <v>133.4334346111227</v>
+        <v>17.54988320439931</v>
       </c>
       <c r="H83">
-        <v>101.8111295163481</v>
+        <v>5.271214642262897</v>
       </c>
       <c r="I83">
-        <v>77.82505575723278</v>
+        <v>7.076225320468804</v>
       </c>
       <c r="J83">
-        <v>25.84528028173338</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>16.41966751017947</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>8.387662282417102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4035,37 +4035,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D84">
-        <v>6.353648727766977</v>
+        <v>7.412645590682204</v>
       </c>
       <c r="E84">
-        <v>26.13510906405203</v>
+        <v>5.930116472545755</v>
       </c>
       <c r="F84">
-        <v>28.37107194821481</v>
+        <v>4.447587354409318</v>
       </c>
       <c r="G84">
-        <v>35.60693766099522</v>
+        <v>3.631010318151579</v>
       </c>
       <c r="H84">
-        <v>39.56183928648738</v>
+        <v>1.482529118136439</v>
       </c>
       <c r="I84">
-        <v>44.02604650520939</v>
+        <v>1.464046618028018</v>
       </c>
       <c r="J84">
-        <v>43.7671456914154</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>43.69325672435207</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>43.59889045743303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4073,28 +4073,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D85">
-        <v>35.82778702163067</v>
+        <v>5.147670549084857</v>
       </c>
       <c r="E85">
-        <v>28.66222961730446</v>
+        <v>4.118136439267887</v>
       </c>
       <c r="F85">
-        <v>21.49667221297836</v>
+        <v>3.088602329450908</v>
       </c>
       <c r="G85">
-        <v>17.5498832043993</v>
+        <v>2.521534943160819</v>
       </c>
       <c r="H85">
-        <v>5.271214642262897</v>
+        <v>1.029534109816969</v>
       </c>
       <c r="I85">
-        <v>5.205499086321874</v>
+        <v>1.016699040297241</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -4111,28 +4111,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D86">
-        <v>7.412645590682193</v>
+        <v>4.324043261231281</v>
       </c>
       <c r="E86">
-        <v>5.930116472545755</v>
+        <v>3.459234608985025</v>
       </c>
       <c r="F86">
-        <v>4.447587354409318</v>
+        <v>2.594425956738769</v>
       </c>
       <c r="G86">
-        <v>3.631010318151579</v>
+        <v>2.118089352255092</v>
       </c>
       <c r="H86">
-        <v>1.482529118136439</v>
+        <v>2.759151414309489</v>
       </c>
       <c r="I86">
-        <v>3.33477285217495</v>
+        <v>0.8540271938496828</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4149,28 +4149,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D87">
-        <v>5.147670549084857</v>
+        <v>8.532204637467791</v>
       </c>
       <c r="E87">
-        <v>4.118136439267868</v>
+        <v>6.825763709974235</v>
       </c>
       <c r="F87">
-        <v>3.088602329450908</v>
+        <v>5.119322782480675</v>
       </c>
       <c r="G87">
-        <v>2.521534943160818</v>
+        <v>3.412881854987118</v>
       </c>
       <c r="H87">
-        <v>1.029534109816969</v>
+        <v>0.7895472948104524</v>
       </c>
       <c r="I87">
-        <v>1.016699040297241</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4187,28 +4187,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D88">
-        <v>4.324043261231253</v>
+        <v>1.11428045638572</v>
       </c>
       <c r="E88">
-        <v>3.459234608985025</v>
+        <v>0.8914243651085758</v>
       </c>
       <c r="F88">
-        <v>2.594425956738769</v>
+        <v>0.6685682738314317</v>
       </c>
       <c r="G88">
-        <v>2.118089352255088</v>
+        <v>0.4457121825542879</v>
       </c>
       <c r="H88">
-        <v>2.759151414309489</v>
+        <v>0.2228560912771439</v>
       </c>
       <c r="I88">
-        <v>0.8540271938496828</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4225,25 +4225,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D89">
-        <v>8.532204637467791</v>
+        <v>0.764078027235922</v>
       </c>
       <c r="E89">
-        <v>6.825763709974227</v>
+        <v>0.6112624217887376</v>
       </c>
       <c r="F89">
-        <v>5.119322782480675</v>
+        <v>0.4584468163415495</v>
       </c>
       <c r="G89">
-        <v>3.412881854987114</v>
+        <v>0.3056312108943688</v>
       </c>
       <c r="H89">
-        <v>0.7895472948104524</v>
+        <v>0.1528156054471852</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4263,25 +4263,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D90">
-        <v>1.11428045638572</v>
+        <v>1.3052999631947</v>
       </c>
       <c r="E90">
-        <v>0.8914243651085781</v>
+        <v>1.04423997055576</v>
       </c>
       <c r="F90">
-        <v>0.6685682738314317</v>
+        <v>0.7831799779168197</v>
       </c>
       <c r="G90">
-        <v>0.4457121825542879</v>
+        <v>0.5221199852778799</v>
       </c>
       <c r="H90">
-        <v>0.2228560912771439</v>
+        <v>1.177953625322044</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -4301,28 +4301,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D91">
-        <v>0.764078027235922</v>
+        <v>2.557763776565733</v>
       </c>
       <c r="E91">
-        <v>0.6112624217887376</v>
+        <v>1.844659593437041</v>
       </c>
       <c r="F91">
-        <v>0.4584468163415495</v>
+        <v>1.705175851043821</v>
       </c>
       <c r="G91">
-        <v>0.3056312108943691</v>
+        <v>1.278881888282866</v>
       </c>
       <c r="H91">
-        <v>0.1528156054471852</v>
+        <v>0.8525879255219111</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>0.4262939627609552</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4339,28 +4339,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D92">
-        <v>1.3052999631947</v>
+        <v>1.459733872484482</v>
       </c>
       <c r="E92">
-        <v>1.04423997055576</v>
+        <v>1.052760273022151</v>
       </c>
       <c r="F92">
-        <v>0.7831799779168197</v>
+        <v>0.9731559149896561</v>
       </c>
       <c r="G92">
-        <v>0.5221199852778799</v>
+        <v>0.7298669362422421</v>
       </c>
       <c r="H92">
-        <v>1.177953625322044</v>
+        <v>0.4865779574948268</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.2432889787474141</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4377,28 +4377,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D93">
-        <v>2.557763776565733</v>
+        <v>57.51765475152572</v>
       </c>
       <c r="E93">
-        <v>1.844659593437041</v>
+        <v>47.93137895960476</v>
       </c>
       <c r="F93">
-        <v>1.705175851043821</v>
+        <v>38.34510316768382</v>
       </c>
       <c r="G93">
-        <v>1.278881888282866</v>
+        <v>28.75882737576286</v>
       </c>
       <c r="H93">
-        <v>0.8525879255219109</v>
+        <v>2.095604475443185</v>
       </c>
       <c r="I93">
-        <v>0.4262939627609554</v>
+        <v>9.586275791920958</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4415,28 +4415,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>1.459733872484482</v>
+        <v>3.544692676547504</v>
       </c>
       <c r="E94">
-        <v>1.052760273022156</v>
+        <v>2.953910563789596</v>
       </c>
       <c r="F94">
-        <v>0.9731559149896561</v>
+        <v>2.363128451031674</v>
       </c>
       <c r="G94">
-        <v>0.7298669362422421</v>
+        <v>1.772346338273752</v>
       </c>
       <c r="H94">
-        <v>0.4865779574948255</v>
+        <v>18.25851133391456</v>
       </c>
       <c r="I94">
-        <v>0.2432889787474136</v>
+        <v>0.5907821127579195</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4453,28 +4453,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D95">
-        <v>57.51765475152572</v>
+        <v>188.0662112145743</v>
       </c>
       <c r="E95">
-        <v>47.93137895960476</v>
+        <v>161.0673152741832</v>
       </c>
       <c r="F95">
-        <v>38.34510316768382</v>
+        <v>131.5194968547042</v>
       </c>
       <c r="G95">
-        <v>28.75882737576286</v>
+        <v>81.09875000000002</v>
       </c>
       <c r="H95">
-        <v>2.095604475443185</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1.047802237721593</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4491,28 +4491,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D96">
-        <v>3.544692676547504</v>
+        <v>24.43651162790697</v>
       </c>
       <c r="E96">
-        <v>2.953910563789596</v>
+        <v>19.54920930232558</v>
       </c>
       <c r="F96">
-        <v>2.363128451031674</v>
+        <v>14.66190697674418</v>
       </c>
       <c r="G96">
-        <v>1.772346338273757</v>
+        <v>9.77460465116279</v>
       </c>
       <c r="H96">
-        <v>18.25851133391456</v>
+        <v>4.887302325581397</v>
       </c>
       <c r="I96">
-        <v>9.129255666957283</v>
+        <v>0</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -4529,22 +4529,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D97">
-        <v>188.0662112145743</v>
+        <v>3.002</v>
       </c>
       <c r="E97">
-        <v>161.0673152741832</v>
+        <v>2.4016</v>
       </c>
       <c r="F97">
-        <v>131.5194968547042</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>81.09875000000002</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4567,25 +4567,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D98">
-        <v>24.43651162790697</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>19.54920930232558</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>14.66190697674418</v>
+        <v>1.801199999999999</v>
       </c>
       <c r="G98">
-        <v>9.77460465116279</v>
+        <v>1.2008</v>
       </c>
       <c r="H98">
-        <v>4.887302325581397</v>
+        <v>0.6003999999999998</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4605,37 +4605,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D99">
-        <v>3.002</v>
+        <v>0.6294065294117661</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>4.108034180036881</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>6.349477084458855</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>11.07206210149305</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>17.79481728074998</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>20.57417120710969</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>25.52247676905121</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>25.47028575668677</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>17.15615834338967</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4643,37 +4643,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.1864908235294123</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1.217195312603521</v>
       </c>
       <c r="F100">
-        <v>1.801199999999999</v>
+        <v>1.881326543543364</v>
       </c>
       <c r="G100">
-        <v>1.2008</v>
+        <v>3.280610993034979</v>
       </c>
       <c r="H100">
-        <v>0.6003999999999998</v>
+        <v>5.272538453555549</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>6.096050728032498</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>7.562215338978139</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>7.546751335314601</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>5.083306175819159</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4681,37 +4681,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
         <v>149</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1.352058470588238</v>
       </c>
       <c r="E101">
-        <v>2.4016</v>
+        <v>8.82466601637552</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>13.63961744068939</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>23.78442969950358</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>38.22590378827771</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>44.19636777823561</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>54.8260612075915</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>54.71394718103085</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>36.85396977468891</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4719,37 +4719,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D102">
-        <v>0.6294065294117661</v>
+        <v>9.608734034482762</v>
       </c>
       <c r="E102">
-        <v>4.108034180036881</v>
+        <v>11.23139123480009</v>
       </c>
       <c r="F102">
-        <v>6.349477084458857</v>
+        <v>12.00476062234037</v>
       </c>
       <c r="G102">
-        <v>11.07206210149305</v>
+        <v>13.28433017214931</v>
       </c>
       <c r="H102">
-        <v>17.79481728074997</v>
+        <v>12.11725813766655</v>
       </c>
       <c r="I102">
-        <v>20.57417120710967</v>
+        <v>11.93340044229373</v>
       </c>
       <c r="J102">
-        <v>26.16501903583314</v>
+        <v>11.82447221734015</v>
       </c>
       <c r="K102">
-        <v>26.16501903583314</v>
+        <v>11.77236</v>
       </c>
       <c r="L102">
-        <v>23.79629868110883</v>
+        <v>11.74692</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4757,37 +4757,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103">
-        <v>0.1864908235294123</v>
+        <v>0.3351883965517242</v>
       </c>
       <c r="E103">
-        <v>1.217195312603521</v>
+        <v>0.3917927174930263</v>
       </c>
       <c r="F103">
-        <v>1.881326543543365</v>
+        <v>0.418770719383966</v>
       </c>
       <c r="G103">
-        <v>3.280610993034979</v>
+        <v>0.4634068664703245</v>
       </c>
       <c r="H103">
-        <v>5.272538453555548</v>
+        <v>0.4226950513139495</v>
       </c>
       <c r="I103">
-        <v>6.096050728032502</v>
+        <v>0.416281410777688</v>
       </c>
       <c r="J103">
-        <v>7.752598232839452</v>
+        <v>0.4124815889769817</v>
       </c>
       <c r="K103">
-        <v>7.752598232839446</v>
+        <v>0.4106637209302326</v>
       </c>
       <c r="L103">
-        <v>7.050755164772979</v>
+        <v>0.4097762790697675</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4795,37 +4795,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D104">
-        <v>1.352058470588238</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>8.82466601637552</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>13.63961744068939</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>23.78442969950359</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>38.22590378827771</v>
+        <v>1.477863274094384</v>
       </c>
       <c r="I104">
-        <v>44.19636777823559</v>
+        <v>1.477863274094384</v>
       </c>
       <c r="J104">
-        <v>56.20633718808602</v>
+        <v>2.498865581040686</v>
       </c>
       <c r="K104">
-        <v>56.206337188086</v>
+        <v>2.494625952946143</v>
       </c>
       <c r="L104">
-        <v>51.11797494460412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4833,37 +4833,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D105">
-        <v>9.60873403448276</v>
+        <v>3.763972854812397</v>
       </c>
       <c r="E105">
-        <v>11.23139123480009</v>
+        <v>3.1901439454833</v>
       </c>
       <c r="F105">
-        <v>12.00476062234037</v>
+        <v>4.818647158180914</v>
       </c>
       <c r="G105">
-        <v>13.28433017214931</v>
+        <v>4.248652783080191</v>
       </c>
       <c r="H105">
-        <v>12.11725813766655</v>
+        <v>4.676039174874455</v>
       </c>
       <c r="I105">
-        <v>11.93340044229373</v>
+        <v>5.159189959821125</v>
       </c>
       <c r="J105">
-        <v>11.82447221734015</v>
+        <v>4.862382234279727</v>
       </c>
       <c r="K105">
-        <v>11.77236</v>
+        <v>4.816727903715987</v>
       </c>
       <c r="L105">
-        <v>11.74692</v>
+        <v>4.783757067595736</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4871,37 +4871,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D106">
-        <v>0.3351883965517241</v>
+        <v>0.4032828058727568</v>
       </c>
       <c r="E106">
-        <v>0.3917927174930263</v>
+        <v>0.4785215918224951</v>
       </c>
       <c r="F106">
-        <v>0.4187707193839661</v>
+        <v>0.5162836240908124</v>
       </c>
       <c r="G106">
-        <v>0.4634068664703246</v>
+        <v>0.6372979174620286</v>
       </c>
       <c r="H106">
-        <v>0.4226950513139495</v>
+        <v>0.7014058762311681</v>
       </c>
       <c r="I106">
-        <v>0.4162814107776884</v>
+        <v>0.7738784939731685</v>
       </c>
       <c r="J106">
-        <v>0.4124815889769817</v>
+        <v>0.7293573351419592</v>
       </c>
       <c r="K106">
-        <v>0.4106637209302326</v>
+        <v>0.7225091855573978</v>
       </c>
       <c r="L106">
-        <v>0.4097762790697675</v>
+        <v>0.7175635601393607</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4909,37 +4909,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1.276057578193319</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1.699461113232074</v>
       </c>
       <c r="H107">
-        <v>1.477863274094384</v>
+        <v>1.87041566994978</v>
       </c>
       <c r="I107">
-        <v>1.477863274094384</v>
+        <v>2.063675983928448</v>
       </c>
       <c r="J107">
-        <v>2.49886558104068</v>
+        <v>1.944952893711889</v>
       </c>
       <c r="K107">
-        <v>2.494625952946142</v>
+        <v>1.926691161486392</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1.913502827038293</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4947,37 +4947,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.2688552039151713</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.3190143945483301</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.3441890827272082</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.4248652783080191</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.4676039174874455</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>0.5159189959821127</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>0.4862382234279728</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>0.4816727903715987</v>
       </c>
       <c r="L108">
-        <v>1.866140771405821</v>
+        <v>0.4783757067595735</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4985,37 +4985,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D109">
-        <v>2.688552039151713</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>3.190143945483301</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>4.818647158180915</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>4.248652783080191</v>
+        <v>36.46535745018768</v>
       </c>
       <c r="H109">
-        <v>4.676039174874454</v>
+        <v>102.5317357145809</v>
       </c>
       <c r="I109">
-        <v>5.159189959821126</v>
+        <v>100.2567175952082</v>
       </c>
       <c r="J109">
-        <v>4.862382234279726</v>
+        <v>95.01654652225959</v>
       </c>
       <c r="K109">
-        <v>4.816727903715986</v>
+        <v>93.93962824171764</v>
       </c>
       <c r="L109">
-        <v>4.783757067595736</v>
+        <v>105.0242146043117</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5023,37 +5023,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D110">
-        <v>0.4032828058727568</v>
+        <v>15.76190135173043</v>
       </c>
       <c r="E110">
-        <v>0.478521591822495</v>
+        <v>12.9305057973338</v>
       </c>
       <c r="F110">
-        <v>0.5162836240908124</v>
+        <v>10.62799699035878</v>
       </c>
       <c r="G110">
-        <v>0.6372979174620285</v>
+        <v>10.85688951679112</v>
       </c>
       <c r="H110">
-        <v>0.701405876231168</v>
+        <v>5.75262055337829</v>
       </c>
       <c r="I110">
-        <v>0.7738784939731687</v>
+        <v>9.110960631018473</v>
       </c>
       <c r="J110">
-        <v>0.7293573351419593</v>
+        <v>2.637571614147587</v>
       </c>
       <c r="K110">
-        <v>0.7225091855573982</v>
+        <v>2.520657568865276</v>
       </c>
       <c r="L110">
-        <v>0.7175635601393605</v>
+        <v>2.459844160031235</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5061,37 +5061,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D111">
-        <v>1.075420815660684</v>
+        <v>46.92589376053964</v>
       </c>
       <c r="E111">
-        <v>1.276057578193319</v>
+        <v>37.54071500843169</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>28.15553625632379</v>
       </c>
       <c r="G111">
-        <v>1.699461113232075</v>
+        <v>21.29518381112985</v>
       </c>
       <c r="H111">
-        <v>1.87041566994978</v>
+        <v>9.38517875210793</v>
       </c>
       <c r="I111">
-        <v>2.063675983928448</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1.944952893711889</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
       </c>
       <c r="L111">
-        <v>1.913502827038293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5099,37 +5099,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D112">
-        <v>0.2688552039151714</v>
+        <v>9.138111298482306</v>
       </c>
       <c r="E112">
-        <v>0.3190143945483301</v>
+        <v>7.310489038785834</v>
       </c>
       <c r="F112">
-        <v>0.3441890827272082</v>
+        <v>5.482866779089364</v>
       </c>
       <c r="G112">
-        <v>0.4248652783080192</v>
+        <v>3.655244519392915</v>
       </c>
       <c r="H112">
-        <v>0.4676039174874456</v>
+        <v>3.090035413153453</v>
       </c>
       <c r="I112">
-        <v>0.5159189959821123</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>0.4862382234279727</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2.408363951857992</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>0.4783757067595736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5137,37 +5137,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>24.74059021922429</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>19.79247217537943</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>14.84435413153457</v>
       </c>
       <c r="G113">
-        <v>36.46535745018767</v>
+        <v>9.896236087689715</v>
       </c>
       <c r="H113">
-        <v>102.5317357145809</v>
+        <v>4.94811804384486</v>
       </c>
       <c r="I113">
-        <v>100.2567175952082</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>93.32893016667713</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>92.08448783947875</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>89.5507789194442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5175,37 +5175,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D114">
-        <v>15.76190135173042</v>
+        <v>72.10646711635748</v>
       </c>
       <c r="E114">
-        <v>12.93050579733379</v>
+        <v>57.68517369308603</v>
       </c>
       <c r="F114">
-        <v>10.62799699035878</v>
+        <v>43.26388026981452</v>
       </c>
       <c r="G114">
-        <v>10.85688951679112</v>
+        <v>26.31776053962901</v>
       </c>
       <c r="H114">
-        <v>5.75262055337829</v>
+        <v>13.1588802698145</v>
       </c>
       <c r="I114">
-        <v>9.110960631018473</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>2.467874812053261</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>2.337286313827053</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>2.277340498509768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5213,25 +5213,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D115">
-        <v>46.92589376053964</v>
+        <v>135.4711190796112</v>
       </c>
       <c r="E115">
-        <v>37.5407150084317</v>
+        <v>135.4711190796112</v>
       </c>
       <c r="F115">
-        <v>28.15553625632379</v>
+        <v>110.4942328230687</v>
       </c>
       <c r="G115">
-        <v>21.29518381112986</v>
+        <v>34.89291562833748</v>
       </c>
       <c r="H115">
-        <v>9.385178752107926</v>
+        <v>17.44645781416875</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5251,25 +5251,25 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>9.138111298482295</v>
+        <v>19.80360252194316</v>
       </c>
       <c r="E116">
-        <v>7.310489038785828</v>
+        <v>19.80360252194316</v>
       </c>
       <c r="F116">
-        <v>5.482866779089378</v>
+        <v>16.15240121039514</v>
       </c>
       <c r="G116">
-        <v>3.655244519392917</v>
+        <v>5.100758276966894</v>
       </c>
       <c r="H116">
-        <v>3.090035413153457</v>
+        <v>2.550379138483447</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5289,25 +5289,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D117">
-        <v>24.74059021922429</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>19.79247217537942</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>14.84435413153461</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>9.896236087689713</v>
+        <v>12.99827696689215</v>
       </c>
       <c r="H117">
-        <v>4.948118043844857</v>
+        <v>6.499138483446074</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D118">
-        <v>72.10646711635751</v>
+        <v>71.40672345379505</v>
       </c>
       <c r="E118">
-        <v>57.685173693086</v>
+        <v>71.40672345379504</v>
       </c>
       <c r="F118">
-        <v>43.26388026981449</v>
+        <v>58.24142577429691</v>
       </c>
       <c r="G118">
-        <v>26.31776053962901</v>
+        <v>18.39202919188324</v>
       </c>
       <c r="H118">
-        <v>13.1588802698145</v>
+        <v>9.196014595941627</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5365,25 +5365,25 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D119">
-        <v>156.9919012820106</v>
+        <v>208.687571223401</v>
       </c>
       <c r="E119">
-        <v>135.44813117085</v>
+        <v>208.687571223401</v>
       </c>
       <c r="F119">
-        <v>110.4942328230687</v>
+        <v>170.2117265930937</v>
       </c>
       <c r="G119">
-        <v>34.89291562833748</v>
+        <v>40.75279458882165</v>
       </c>
       <c r="H119">
-        <v>17.44645781416876</v>
+        <v>20.37639729441083</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5403,28 +5403,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D120">
-        <v>22.94957946221759</v>
+        <v>93.93009954128442</v>
       </c>
       <c r="E120">
-        <v>19.80024207573875</v>
+        <v>78.27508295107035</v>
       </c>
       <c r="F120">
-        <v>16.15240121039516</v>
+        <v>62.62006636085627</v>
       </c>
       <c r="G120">
-        <v>5.100758276966893</v>
+        <v>46.9650497706422</v>
       </c>
       <c r="H120">
-        <v>2.550379138483447</v>
+        <v>31.31003318042814</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>15.65501659021406</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5441,28 +5441,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D121">
-        <v>18.73571968977262</v>
+        <v>10.17106605504584</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>8.475888379204882</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>6.780710703363913</v>
       </c>
       <c r="G121">
-        <v>12.99827696689216</v>
+        <v>5.085533027522934</v>
       </c>
       <c r="H121">
-        <v>6.499138483446064</v>
+        <v>3.390355351681951</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1.695177675840978</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -5479,28 +5479,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D122">
-        <v>82.75031132460178</v>
+        <v>38.50692522935779</v>
       </c>
       <c r="E122">
-        <v>71.39460654463504</v>
+        <v>32.08910435779816</v>
       </c>
       <c r="F122">
-        <v>58.24142577429692</v>
+        <v>25.67128348623853</v>
       </c>
       <c r="G122">
-        <v>18.39202919188323</v>
+        <v>19.2534626146789</v>
       </c>
       <c r="H122">
-        <v>9.196014595941623</v>
+        <v>12.83564174311927</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>6.417820871559628</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5517,28 +5517,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D123">
-        <v>223.1037129721338</v>
+        <v>99.5548784798939</v>
       </c>
       <c r="E123">
-        <v>208.6521593150956</v>
+        <v>82.96239873324492</v>
       </c>
       <c r="F123">
-        <v>170.2117265930936</v>
+        <v>66.36991898659595</v>
       </c>
       <c r="G123">
-        <v>40.75279458882163</v>
+        <v>49.77743923994695</v>
       </c>
       <c r="H123">
-        <v>20.37639729441085</v>
+        <v>25.8942517307409</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>16.59247974664899</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5555,28 +5555,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D124">
-        <v>93.93009954128442</v>
+        <v>5.846005302695562</v>
       </c>
       <c r="E124">
-        <v>78.27508295107033</v>
+        <v>4.87167108557963</v>
       </c>
       <c r="F124">
-        <v>62.62006636085627</v>
+        <v>3.897336868463695</v>
       </c>
       <c r="G124">
-        <v>46.96504977064221</v>
+        <v>2.923002651347781</v>
       </c>
       <c r="H124">
-        <v>31.31003318042814</v>
+        <v>9.239376196788925</v>
       </c>
       <c r="I124">
-        <v>15.65501659021406</v>
+        <v>0.9743342171159225</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5593,28 +5593,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D125">
-        <v>10.17106605504584</v>
+        <v>227.0210837438424</v>
       </c>
       <c r="E125">
-        <v>8.475888379204893</v>
+        <v>181.6168669950739</v>
       </c>
       <c r="F125">
-        <v>6.780710703363913</v>
+        <v>136.2126502463054</v>
       </c>
       <c r="G125">
-        <v>5.085533027522919</v>
+        <v>90.80843349753695</v>
       </c>
       <c r="H125">
-        <v>3.390355351681953</v>
+        <v>41.43728866995073</v>
       </c>
       <c r="I125">
-        <v>1.695177675840978</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5631,28 +5631,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D126">
-        <v>38.50692522935779</v>
+        <v>25.22104433497536</v>
       </c>
       <c r="E126">
-        <v>32.08910435779816</v>
+        <v>20.17683546798032</v>
       </c>
       <c r="F126">
-        <v>25.67128348623853</v>
+        <v>15.13262660098522</v>
       </c>
       <c r="G126">
-        <v>19.2534626146789</v>
+        <v>10.08841773399015</v>
       </c>
       <c r="H126">
-        <v>12.83564174311926</v>
+        <v>9.011136945812799</v>
       </c>
       <c r="I126">
-        <v>6.41782087155963</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -5669,28 +5669,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D127">
-        <v>99.5548784798939</v>
+        <v>18.21871921182267</v>
       </c>
       <c r="E127">
-        <v>82.96239873324492</v>
+        <v>14.57497536945813</v>
       </c>
       <c r="F127">
-        <v>66.36991898659595</v>
+        <v>10.93123152709359</v>
       </c>
       <c r="G127">
-        <v>49.77743923994695</v>
+        <v>7.287487684729067</v>
       </c>
       <c r="H127">
-        <v>25.8942517307409</v>
+        <v>3.643743842364531</v>
       </c>
       <c r="I127">
-        <v>12.94712586537045</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5707,28 +5707,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D128">
-        <v>5.846005302695562</v>
+        <v>27.348</v>
       </c>
       <c r="E128">
-        <v>4.87167108557963</v>
+        <v>9.739345745131958</v>
       </c>
       <c r="F128">
-        <v>3.897336868463695</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>2.923002651347781</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>9.239376196788923</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>4.619688098394461</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -5745,25 +5745,25 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D129">
-        <v>227.0210837438424</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>181.6168669950739</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>136.2126502463055</v>
+        <v>16.4088</v>
       </c>
       <c r="G129">
-        <v>90.80843349753695</v>
+        <v>10.9392</v>
       </c>
       <c r="H129">
-        <v>41.43728866995073</v>
+        <v>5.469600000000002</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5783,25 +5783,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D130">
-        <v>25.22104433497534</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>20.1768354679803</v>
+        <v>12.13905425486804</v>
       </c>
       <c r="F130">
-        <v>15.13262660098519</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>10.08841773399014</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>9.011136945812801</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5821,37 +5821,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D131">
-        <v>18.21871921182267</v>
+        <v>17.13895397335004</v>
       </c>
       <c r="E131">
-        <v>14.57497536945812</v>
+        <v>20.0042057246918</v>
       </c>
       <c r="F131">
-        <v>10.9312315270936</v>
+        <v>26.0568470212218</v>
       </c>
       <c r="G131">
-        <v>7.287487684729066</v>
+        <v>47.95472495824435</v>
       </c>
       <c r="H131">
-        <v>3.643743842364531</v>
+        <v>53.81301386478528</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>59.76212163621283</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>58.6900964582104</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>59.21326297307602</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>59.24883108787895</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5859,37 +5859,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
         <v>145</v>
       </c>
       <c r="D132">
-        <v>27.348</v>
+        <v>34.27790794670011</v>
       </c>
       <c r="E132">
-        <v>15.24039415222229</v>
+        <v>40.0084114493836</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>52.1136940424436</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>95.90944991648871</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>107.6260277295706</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>119.5242432724256</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>117.3801929164208</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>118.4265259461521</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>118.4976621757579</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5897,37 +5897,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>132.8268932934629</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>155.0325943663614</v>
       </c>
       <c r="F133">
-        <v>16.4088</v>
+        <v>201.940564414469</v>
       </c>
       <c r="G133">
-        <v>10.9392</v>
+        <v>371.6491184263937</v>
       </c>
       <c r="H133">
-        <v>5.469600000000002</v>
+        <v>417.0508574520859</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>463.1564426806494</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>454.8482475511307</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>458.9027880413394</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>459.178440931062</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5935,37 +5935,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>10.71184623334378</v>
       </c>
       <c r="E134">
-        <v>6.638005847777709</v>
+        <v>12.50262857793237</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>16.28552938826363</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>29.97170309890272</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>33.6331336654908</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>37.35132602263301</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>36.6813102863815</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>37.00828935817253</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>37.03051942992435</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5973,37 +5973,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D135">
-        <v>11.88780380800174</v>
+        <v>0.4433060800000015</v>
       </c>
       <c r="E135">
-        <v>19.86654888242001</v>
+        <v>1.882996097043166</v>
       </c>
       <c r="F135">
-        <v>25.91387867204004</v>
+        <v>2.934327152467706</v>
       </c>
       <c r="G135">
-        <v>47.81175660906261</v>
+        <v>4.607550668794517</v>
       </c>
       <c r="H135">
-        <v>53.67004551560351</v>
+        <v>5.856646473960984</v>
       </c>
       <c r="I135">
-        <v>59.61915328703108</v>
+        <v>7.076018379600698</v>
       </c>
       <c r="J135">
-        <v>59.07631378460639</v>
+        <v>8.201454335112677</v>
       </c>
       <c r="K135">
-        <v>59.21299533900693</v>
+        <v>8.255182010940993</v>
       </c>
       <c r="L135">
-        <v>59.24883108787897</v>
+        <v>8.301842170321878</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6011,37 +6011,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D136">
-        <v>23.77560761600349</v>
+        <v>0.1477686933333362</v>
       </c>
       <c r="E136">
-        <v>39.73309776484001</v>
+        <v>0.6276653656810555</v>
       </c>
       <c r="F136">
-        <v>51.8277573440801</v>
+        <v>0.97810905082257</v>
       </c>
       <c r="G136">
-        <v>95.6235132181252</v>
+        <v>1.535850222931509</v>
       </c>
       <c r="H136">
-        <v>107.3400910312071</v>
+        <v>1.952215491320328</v>
       </c>
       <c r="I136">
-        <v>119.2383065740622</v>
+        <v>2.358672793200233</v>
       </c>
       <c r="J136">
-        <v>118.1526275692128</v>
+        <v>2.733818111704226</v>
       </c>
       <c r="K136">
-        <v>118.4259906780139</v>
+        <v>2.751727336980331</v>
       </c>
       <c r="L136">
-        <v>118.4976621757579</v>
+        <v>2.767280723440627</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6049,37 +6049,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D137">
-        <v>92.13047951201354</v>
+        <v>2.06876170666667</v>
       </c>
       <c r="E137">
-        <v>153.965753838755</v>
+        <v>8.787315119534775</v>
       </c>
       <c r="F137">
-        <v>200.8325597083104</v>
+        <v>13.69352671151598</v>
       </c>
       <c r="G137">
-        <v>370.5411137202352</v>
+        <v>21.50190312104107</v>
       </c>
       <c r="H137">
-        <v>415.9428527459271</v>
+        <v>27.33101687848458</v>
       </c>
       <c r="I137">
-        <v>462.0484379744908</v>
+        <v>33.02141910480324</v>
       </c>
       <c r="J137">
-        <v>457.8414318306993</v>
+        <v>38.27345356385914</v>
       </c>
       <c r="K137">
-        <v>458.9007138773037</v>
+        <v>38.5241827177246</v>
       </c>
       <c r="L137">
-        <v>459.178440931062</v>
+        <v>38.74193012816874</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6087,37 +6087,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D138">
-        <v>7.42987738000109</v>
+        <v>11.96926416000005</v>
       </c>
       <c r="E138">
-        <v>12.41659305151249</v>
+        <v>50.84089462016549</v>
       </c>
       <c r="F138">
-        <v>16.19617417002503</v>
+        <v>79.22683311662821</v>
       </c>
       <c r="G138">
-        <v>29.88234788066412</v>
+        <v>124.4038680574519</v>
       </c>
       <c r="H138">
-        <v>33.54377844725219</v>
+        <v>158.1294547969465</v>
       </c>
       <c r="I138">
-        <v>37.26197080439442</v>
+        <v>191.0524962492189</v>
       </c>
       <c r="J138">
-        <v>36.922696115379</v>
+        <v>221.4392670480423</v>
       </c>
       <c r="K138">
-        <v>37.00812208687933</v>
+        <v>222.8899142954068</v>
       </c>
       <c r="L138">
-        <v>37.03051942992437</v>
+        <v>224.1497385986908</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6125,37 +6125,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139">
-        <v>0.4433060799999997</v>
+        <v>31.03429429760009</v>
       </c>
       <c r="E139">
-        <v>1.882996097043166</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>2.934327152467706</v>
+        <v>31.03429429760009</v>
       </c>
       <c r="G139">
-        <v>4.607550668794517</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>5.856646473960981</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>7.0760183796007</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>8.201454335112681</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>8.255182010941001</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>8.30184217032188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6163,37 +6163,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
         <v>146</v>
       </c>
       <c r="D140">
-        <v>0.1477686933333335</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>0.6276653656810556</v>
+        <v>61.09055165575061</v>
       </c>
       <c r="F140">
-        <v>0.9781090508225696</v>
+        <v>80.40649195947998</v>
       </c>
       <c r="G140">
-        <v>1.535850222931505</v>
+        <v>148.1191613340339</v>
       </c>
       <c r="H140">
-        <v>1.952215491320328</v>
+        <v>188.1094103090739</v>
       </c>
       <c r="I140">
-        <v>2.358672793200232</v>
+        <v>228.5103423382255</v>
       </c>
       <c r="J140">
-        <v>2.733818111704225</v>
+        <v>263.2279957661775</v>
       </c>
       <c r="K140">
-        <v>2.751727336980332</v>
+        <v>265.597865337476</v>
       </c>
       <c r="L140">
-        <v>2.767280723440627</v>
+        <v>266.6759369691673</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6201,37 +6201,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D141">
-        <v>2.068761706666671</v>
+        <v>230.7641976944881</v>
       </c>
       <c r="E141">
-        <v>8.78731511953479</v>
+        <v>286.2912639009852</v>
       </c>
       <c r="F141">
-        <v>13.69352671151599</v>
+        <v>320.4028614966759</v>
       </c>
       <c r="G141">
-        <v>21.50190312104107</v>
+        <v>390.2389648381999</v>
       </c>
       <c r="H141">
-        <v>27.33101687848456</v>
+        <v>413.2258114165373</v>
       </c>
       <c r="I141">
-        <v>33.02141910480325</v>
+        <v>456.1138087624343</v>
       </c>
       <c r="J141">
-        <v>38.27345356385914</v>
+        <v>459.5899155323231</v>
       </c>
       <c r="K141">
-        <v>38.52418271772466</v>
+        <v>463.6971159446177</v>
       </c>
       <c r="L141">
-        <v>38.74193012816874</v>
+        <v>468.5949167317826</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6242,34 +6242,34 @@
         <v>83</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D142">
-        <v>11.96926416000001</v>
+        <v>435.8891411042945</v>
       </c>
       <c r="E142">
-        <v>50.84089462016549</v>
+        <v>348.7113128834356</v>
       </c>
       <c r="F142">
-        <v>79.22683311662821</v>
+        <v>261.5334846625767</v>
       </c>
       <c r="G142">
-        <v>124.4038680574519</v>
+        <v>174.3556564417178</v>
       </c>
       <c r="H142">
-        <v>158.1294547969465</v>
+        <v>87.17782822085887</v>
       </c>
       <c r="I142">
-        <v>191.0524962492189</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>221.4392670480423</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>222.8899142954068</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>224.1497385986908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6280,34 +6280,34 @@
         <v>84</v>
       </c>
       <c r="C143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D143">
-        <v>15.21375402505404</v>
+        <v>8.08</v>
       </c>
       <c r="E143">
-        <v>61.50605334130881</v>
+        <v>6.464</v>
       </c>
       <c r="F143">
-        <v>95.22683641313638</v>
+        <v>4.848000000000001</v>
       </c>
       <c r="G143">
-        <v>148.9076967964552</v>
+        <v>3.232</v>
       </c>
       <c r="H143">
-        <v>188.8979457714955</v>
+        <v>1.616</v>
       </c>
       <c r="I143">
-        <v>227.7627317631659</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>263.6010295430407</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>265.2436643338139</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>266.6759369691659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6318,34 +6318,34 @@
         <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D144">
-        <v>230.764197694488</v>
+        <v>29.0985</v>
       </c>
       <c r="E144">
-        <v>286.2912639009852</v>
+        <v>12.252</v>
       </c>
       <c r="F144">
-        <v>320.4028614966761</v>
+        <v>9.227400000000003</v>
       </c>
       <c r="G144">
-        <v>390.2389648381999</v>
+        <v>6.126000000000001</v>
       </c>
       <c r="H144">
-        <v>413.2258114165372</v>
+        <v>3.062999999999998</v>
       </c>
       <c r="I144">
-        <v>456.1138087624344</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>459.589915532323</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>463.6971159446177</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>468.5949167317828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6356,22 +6356,22 @@
         <v>86</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D145">
-        <v>435.8891411042945</v>
+        <v>0.9105882352941179</v>
       </c>
       <c r="E145">
-        <v>348.7113128834356</v>
+        <v>0.7284705882352942</v>
       </c>
       <c r="F145">
-        <v>261.5334846625767</v>
+        <v>0.5463529411764707</v>
       </c>
       <c r="G145">
-        <v>174.3556564417178</v>
+        <v>0.3642352941176471</v>
       </c>
       <c r="H145">
-        <v>87.17782822085887</v>
+        <v>0.1821176470588138</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6397,19 +6397,19 @@
         <v>146</v>
       </c>
       <c r="D146">
-        <v>8.08</v>
+        <v>2.383941176470588</v>
       </c>
       <c r="E146">
-        <v>6.464</v>
+        <v>1.057976470588237</v>
       </c>
       <c r="F146">
-        <v>4.847999999999999</v>
+        <v>0.7528235294117649</v>
       </c>
       <c r="G146">
-        <v>3.232</v>
+        <v>0.5289882352941268</v>
       </c>
       <c r="H146">
-        <v>1.616000000000001</v>
+        <v>0.2509411764705883</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6432,22 +6432,22 @@
         <v>88</v>
       </c>
       <c r="C147" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D147">
-        <v>29.0985</v>
+        <v>10.75609756097561</v>
       </c>
       <c r="E147">
-        <v>12.252</v>
+        <v>8.604878048780488</v>
       </c>
       <c r="F147">
-        <v>9.227399999999992</v>
+        <v>6.453658536585367</v>
       </c>
       <c r="G147">
-        <v>6.126</v>
+        <v>4.302439024390244</v>
       </c>
       <c r="H147">
-        <v>3.062999999999999</v>
+        <v>2.151219512195122</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6470,22 +6470,22 @@
         <v>89</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D148">
-        <v>0.9105882352941179</v>
+        <v>43.54243902439023</v>
       </c>
       <c r="E148">
-        <v>0.7284705882352942</v>
+        <v>18.33365853658536</v>
       </c>
       <c r="F148">
-        <v>0.5463529411764707</v>
+        <v>13.750243902439</v>
       </c>
       <c r="G148">
-        <v>0.3642352941176472</v>
+        <v>9.166829268292682</v>
       </c>
       <c r="H148">
-        <v>0.1821176470588236</v>
+        <v>4.583414634146341</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6508,22 +6508,22 @@
         <v>90</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D149">
-        <v>2.383941176470588</v>
+        <v>4.264024390243903</v>
       </c>
       <c r="E149">
-        <v>1.057976470588232</v>
+        <v>3.411219512195122</v>
       </c>
       <c r="F149">
-        <v>0.7528235294117649</v>
+        <v>2.558414634146342</v>
       </c>
       <c r="G149">
-        <v>0.5289882352941147</v>
+        <v>1.705609756097561</v>
       </c>
       <c r="H149">
-        <v>0.2509411764705883</v>
+        <v>0.8528048780487806</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6546,22 +6546,22 @@
         <v>91</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D150">
-        <v>10.75609756097556</v>
+        <v>2.624355825267624</v>
       </c>
       <c r="E150">
-        <v>8.604878048780488</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>6.453658536585366</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>4.302439024390243</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>2.151219512195123</v>
+        <v>0.01151999999999907</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6584,25 +6584,25 @@
         <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D151">
-        <v>43.54243902439025</v>
+        <v>52.24313886984918</v>
       </c>
       <c r="E151">
-        <v>18.33365853658537</v>
+        <v>81.58388089075889</v>
       </c>
       <c r="F151">
-        <v>13.75024390243902</v>
+        <v>93.33839994138349</v>
       </c>
       <c r="G151">
-        <v>13.75024390243884</v>
+        <v>102.4045214441393</v>
       </c>
       <c r="H151">
-        <v>4.58341463414634</v>
+        <v>64.57624614352406</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>33.08670437221894</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -6622,34 +6622,34 @@
         <v>93</v>
       </c>
       <c r="C152" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D152">
-        <v>4.264024390244082</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>3.411219512195123</v>
+        <v>1.396886032029592</v>
       </c>
       <c r="F152">
-        <v>2.558414634146342</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1.705609756097561</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>0.8528048780487806</v>
+        <v>32.01692989608519</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>49.77185242669879</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>54.95887896182154</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>51.12980916602968</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>50.08915454535022</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6660,34 +6660,34 @@
         <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D153">
-        <v>2.624355825267513</v>
+        <v>255.2592624137088</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>331.6123296180518</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>325.8113983393615</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>398.914974293992</v>
       </c>
       <c r="H153">
-        <v>0.01152000000000251</v>
+        <v>377.3037676525895</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>418.8590655889017</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>629.3062287688866</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>642.270647560453</v>
       </c>
       <c r="L153">
-        <v>0</v>
+        <v>658.7548343740115</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6698,34 +6698,34 @@
         <v>95</v>
       </c>
       <c r="C154" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D154">
-        <v>52.24313886984931</v>
+        <v>190.8228488372093</v>
       </c>
       <c r="E154">
-        <v>73.27307572454821</v>
+        <v>152.6582790697674</v>
       </c>
       <c r="F154">
-        <v>93.28893086301343</v>
+        <v>114.4937093023256</v>
       </c>
       <c r="G154">
-        <v>97.90724171488168</v>
+        <v>76.32913953488371</v>
       </c>
       <c r="H154">
-        <v>44.93513599620453</v>
+        <v>38.16456976744185</v>
       </c>
       <c r="I154">
-        <v>37.75912599760897</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>108.9618226810197</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>116.2037785841757</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>117.7722808062696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6736,25 +6736,25 @@
         <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>38.38888888888889</v>
       </c>
       <c r="E155">
-        <v>8.336408345815464</v>
+        <v>31.99074074074073</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>25.59259259259259</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>19.19444444444444</v>
       </c>
       <c r="H155">
-        <v>45.84073509341419</v>
+        <v>12.79629629629629</v>
       </c>
       <c r="I155">
-        <v>50.051299607768</v>
+        <v>6.398148148148144</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -6774,34 +6774,34 @@
         <v>97</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D156">
-        <v>255.2592624137086</v>
+        <v>110.9938271604938</v>
       </c>
       <c r="E156">
-        <v>331.6123296180511</v>
+        <v>92.49485596707818</v>
       </c>
       <c r="F156">
-        <v>325.8113983393593</v>
+        <v>73.99588477366255</v>
       </c>
       <c r="G156">
-        <v>399.179160490464</v>
+        <v>55.49691358024691</v>
       </c>
       <c r="H156">
-        <v>405.8972930535099</v>
+        <v>36.99794238683128</v>
       </c>
       <c r="I156">
-        <v>416.8881171382737</v>
+        <v>18.49897119341564</v>
       </c>
       <c r="J156">
-        <v>416.3913214479683</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>344.1424770752723</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>336.6384078180407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6812,25 +6812,25 @@
         <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D157">
-        <v>190.8228488372093</v>
+        <v>93.26543209876544</v>
       </c>
       <c r="E157">
-        <v>152.6582790697674</v>
+        <v>77.72119341563786</v>
       </c>
       <c r="F157">
-        <v>114.4937093023256</v>
+        <v>62.17695473251028</v>
       </c>
       <c r="G157">
-        <v>76.32913953488371</v>
+        <v>46.63271604938272</v>
       </c>
       <c r="H157">
-        <v>38.16456976744185</v>
+        <v>40.46165329218107</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>15.54423868312757</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -6850,25 +6850,25 @@
         <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D158">
-        <v>38.38888888888889</v>
+        <v>27.16049382716049</v>
       </c>
       <c r="E158">
-        <v>31.99074074074074</v>
+        <v>22.63374485596708</v>
       </c>
       <c r="F158">
-        <v>25.59259259259258</v>
+        <v>18.10699588477367</v>
       </c>
       <c r="G158">
-        <v>19.19444444444444</v>
+        <v>25.80246913580247</v>
       </c>
       <c r="H158">
-        <v>12.79629629629629</v>
+        <v>9.05349794238683</v>
       </c>
       <c r="I158">
-        <v>6.398148148148144</v>
+        <v>4.526748971193417</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6888,25 +6888,25 @@
         <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D159">
-        <v>110.9938271604938</v>
+        <v>10.09814814814815</v>
       </c>
       <c r="E159">
-        <v>92.49485596707818</v>
+        <v>4.429012345679012</v>
       </c>
       <c r="F159">
-        <v>73.99588477366255</v>
+        <v>3.54320987654321</v>
       </c>
       <c r="G159">
-        <v>55.4969135802469</v>
+        <v>5.049074074074073</v>
       </c>
       <c r="H159">
-        <v>36.99794238683128</v>
+        <v>1.771604938271605</v>
       </c>
       <c r="I159">
-        <v>18.49897119341563</v>
+        <v>0.8858024691358022</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -6929,22 +6929,22 @@
         <v>144</v>
       </c>
       <c r="D160">
-        <v>93.26543209876544</v>
+        <v>5.98148148148148</v>
       </c>
       <c r="E160">
-        <v>77.72119341563786</v>
+        <v>4.984567901234567</v>
       </c>
       <c r="F160">
-        <v>62.17695473251028</v>
+        <v>3.987654320987654</v>
       </c>
       <c r="G160">
-        <v>46.63271604938272</v>
+        <v>5.682407407407406</v>
       </c>
       <c r="H160">
-        <v>31.08847736625514</v>
+        <v>1.993827160493827</v>
       </c>
       <c r="I160">
-        <v>15.54423868312758</v>
+        <v>0.9969135802469137</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6964,25 +6964,25 @@
         <v>102</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D161">
-        <v>27.16049382716049</v>
+        <v>197.7620025145155</v>
       </c>
       <c r="E161">
-        <v>22.63374485596708</v>
+        <v>170.8077674897119</v>
       </c>
       <c r="F161">
-        <v>18.10699588477366</v>
+        <v>166.0870430718734</v>
       </c>
       <c r="G161">
-        <v>25.80246913580246</v>
+        <v>124.708024691358</v>
       </c>
       <c r="H161">
-        <v>9.05349794238683</v>
+        <v>83.13868312757202</v>
       </c>
       <c r="I161">
-        <v>4.526748971193417</v>
+        <v>39.82342921810699</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -7002,25 +7002,25 @@
         <v>103</v>
       </c>
       <c r="C162" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D162">
-        <v>10.09814814814815</v>
+        <v>230.206375</v>
       </c>
       <c r="E162">
-        <v>4.429012345679012</v>
+        <v>219.2441666666666</v>
       </c>
       <c r="F162">
-        <v>3.54320987654321</v>
+        <v>175.3953333333333</v>
       </c>
       <c r="G162">
-        <v>5.049074074074073</v>
+        <v>131.5465</v>
       </c>
       <c r="H162">
-        <v>1.771604938271605</v>
+        <v>46.15666666666667</v>
       </c>
       <c r="I162">
-        <v>0.8858024691358022</v>
+        <v>23.07833333333333</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -7043,22 +7043,22 @@
         <v>145</v>
       </c>
       <c r="D163">
-        <v>5.981481481481481</v>
+        <v>91.17682926829269</v>
       </c>
       <c r="E163">
-        <v>4.984567901234566</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="F163">
-        <v>3.987654320987653</v>
+        <v>37.39373277329155</v>
       </c>
       <c r="G163">
-        <v>5.682407407407406</v>
+        <v>39.98983739837399</v>
       </c>
       <c r="H163">
-        <v>1.993827160493827</v>
+        <v>15.9959349593496</v>
       </c>
       <c r="I163">
-        <v>0.9969135802469138</v>
+        <v>7.997967479674803</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -7078,25 +7078,25 @@
         <v>105</v>
       </c>
       <c r="C164" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D164">
-        <v>195.4182654917646</v>
+        <v>263.6078313253012</v>
       </c>
       <c r="E164">
-        <v>170.8077674897119</v>
+        <v>119.0467896746505</v>
       </c>
       <c r="F164">
-        <v>164.6219080224171</v>
+        <v>92.4939759036145</v>
       </c>
       <c r="G164">
-        <v>124.708024691358</v>
+        <v>119.0467896746505</v>
       </c>
       <c r="H164">
-        <v>83.13868312757201</v>
+        <v>46.24698795180724</v>
       </c>
       <c r="I164">
-        <v>41.569341563786</v>
+        <v>23.12349397590361</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -7116,25 +7116,25 @@
         <v>106</v>
       </c>
       <c r="C165" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D165">
-        <v>224.559479795196</v>
+        <v>524.6176470588235</v>
       </c>
       <c r="E165">
-        <v>219.2441666666666</v>
+        <v>437.1813725490196</v>
       </c>
       <c r="F165">
-        <v>175.3953333333333</v>
+        <v>349.7450980392157</v>
       </c>
       <c r="G165">
-        <v>131.5465</v>
+        <v>262.3088235294118</v>
       </c>
       <c r="H165">
-        <v>46.15666666666667</v>
+        <v>262.3088235294118</v>
       </c>
       <c r="I165">
-        <v>23.07833333333334</v>
+        <v>87.43627450980392</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7154,25 +7154,25 @@
         <v>107</v>
       </c>
       <c r="C166" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D166">
-        <v>91.17682926829269</v>
+        <v>71.88333333333333</v>
       </c>
       <c r="E166">
-        <v>39.98983739837399</v>
+        <v>38.69511793206079</v>
       </c>
       <c r="F166">
-        <v>37.45453555898415</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="G166">
-        <v>37.45453555898415</v>
+        <v>18.91666666666666</v>
       </c>
       <c r="H166">
-        <v>30.39227642276423</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I166">
-        <v>7.997967479674803</v>
+        <v>6.305555555555554</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7192,25 +7192,25 @@
         <v>108</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D167">
-        <v>263.6078313253012</v>
+        <v>8.901851851851852</v>
       </c>
       <c r="E167">
-        <v>115.6174698795181</v>
+        <v>3.904320987654321</v>
       </c>
       <c r="F167">
-        <v>98.13615397388971</v>
+        <v>3.123456790123456</v>
       </c>
       <c r="G167">
-        <v>115.6174698795181</v>
+        <v>4.450925925925926</v>
       </c>
       <c r="H167">
-        <v>46.24698795180724</v>
+        <v>1.561728395061728</v>
       </c>
       <c r="I167">
-        <v>23.12349397590361</v>
+        <v>0.780864197530864</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -7230,25 +7230,25 @@
         <v>109</v>
       </c>
       <c r="C168" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D168">
-        <v>524.6176470588235</v>
+        <v>136.085</v>
       </c>
       <c r="E168">
-        <v>437.1813725490196</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="F168">
-        <v>349.7450980392157</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="G168">
-        <v>262.3088235294118</v>
+        <v>113.4041666666667</v>
       </c>
       <c r="H168">
-        <v>174.8725490196078</v>
+        <v>45.36166666666666</v>
       </c>
       <c r="I168">
-        <v>87.43627450980392</v>
+        <v>22.68083333333334</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -7268,25 +7268,25 @@
         <v>110</v>
       </c>
       <c r="C169" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D169">
-        <v>71.88333333333333</v>
+        <v>40.36470588235294</v>
       </c>
       <c r="E169">
-        <v>59.90277777777776</v>
+        <v>33.63725490196079</v>
       </c>
       <c r="F169">
-        <v>25.22222222222222</v>
+        <v>26.90980392156863</v>
       </c>
       <c r="G169">
-        <v>18.91666666666666</v>
+        <v>20.18235294117647</v>
       </c>
       <c r="H169">
-        <v>12.61111111111111</v>
+        <v>13.45490196078432</v>
       </c>
       <c r="I169">
-        <v>6.305555555555554</v>
+        <v>6.727450980392161</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7306,25 +7306,25 @@
         <v>111</v>
       </c>
       <c r="C170" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D170">
-        <v>4.685185185185185</v>
+        <v>517.1058823529412</v>
       </c>
       <c r="E170">
-        <v>3.904320987654321</v>
+        <v>430.9215686274511</v>
       </c>
       <c r="F170">
-        <v>3.123456790123456</v>
+        <v>344.7372549019607</v>
       </c>
       <c r="G170">
-        <v>2.342592592592593</v>
+        <v>258.5529411764706</v>
       </c>
       <c r="H170">
-        <v>2.342592592592593</v>
+        <v>172.3686274509804</v>
       </c>
       <c r="I170">
-        <v>0.780864197530864</v>
+        <v>86.18431372549018</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7347,22 +7347,22 @@
         <v>164</v>
       </c>
       <c r="D171">
-        <v>136.085</v>
+        <v>181.445</v>
       </c>
       <c r="E171">
-        <v>129.28075</v>
+        <v>151.2041666666667</v>
       </c>
       <c r="F171">
-        <v>129.28075</v>
+        <v>120.9633333333333</v>
       </c>
       <c r="G171">
-        <v>129.28075</v>
+        <v>90.7225</v>
       </c>
       <c r="H171">
-        <v>45.36166666666666</v>
+        <v>60.48166666666667</v>
       </c>
       <c r="I171">
-        <v>22.68083333333334</v>
+        <v>30.24083333333332</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7385,22 +7385,22 @@
         <v>145</v>
       </c>
       <c r="D172">
-        <v>40.36470588235294</v>
+        <v>19.19753086419753</v>
       </c>
       <c r="E172">
-        <v>33.63725490196079</v>
+        <v>15.99794238683128</v>
       </c>
       <c r="F172">
-        <v>26.90980392156863</v>
+        <v>12.79835390946502</v>
       </c>
       <c r="G172">
-        <v>20.18235294117647</v>
+        <v>9.598765432098764</v>
       </c>
       <c r="H172">
-        <v>13.45490196078432</v>
+        <v>6.39917695473251</v>
       </c>
       <c r="I172">
-        <v>6.727450980392161</v>
+        <v>3.199588477366255</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7420,25 +7420,25 @@
         <v>114</v>
       </c>
       <c r="C173" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D173">
-        <v>517.1058823529412</v>
+        <v>55.5</v>
       </c>
       <c r="E173">
-        <v>430.9215686274511</v>
+        <v>46.24999999999999</v>
       </c>
       <c r="F173">
-        <v>344.7372549019607</v>
+        <v>37</v>
       </c>
       <c r="G173">
-        <v>258.5529411764706</v>
+        <v>27.75</v>
       </c>
       <c r="H173">
-        <v>172.3686274509804</v>
+        <v>18.5</v>
       </c>
       <c r="I173">
-        <v>86.18431372549018</v>
+        <v>9.25</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7458,25 +7458,25 @@
         <v>115</v>
       </c>
       <c r="C174" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D174">
-        <v>181.445</v>
+        <v>104.9259259259259</v>
       </c>
       <c r="E174">
-        <v>151.2041666666667</v>
+        <v>87.43827160493825</v>
       </c>
       <c r="F174">
-        <v>120.9633333333333</v>
+        <v>69.95061728395061</v>
       </c>
       <c r="G174">
-        <v>90.7225</v>
+        <v>52.46296296296295</v>
       </c>
       <c r="H174">
-        <v>60.48166666666667</v>
+        <v>34.9753086419753</v>
       </c>
       <c r="I174">
-        <v>30.24083333333332</v>
+        <v>17.48765432098764</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7496,25 +7496,25 @@
         <v>116</v>
       </c>
       <c r="C175" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D175">
-        <v>19.19753086419753</v>
+        <v>2.006172839506173</v>
       </c>
       <c r="E175">
-        <v>15.99794238683128</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="F175">
-        <v>12.79835390946502</v>
+        <v>1.337448559670782</v>
       </c>
       <c r="G175">
-        <v>9.598765432098764</v>
+        <v>1.671810699588477</v>
       </c>
       <c r="H175">
-        <v>6.39917695473251</v>
+        <v>0.6687242798353911</v>
       </c>
       <c r="I175">
-        <v>3.199588477366255</v>
+        <v>0.3343621399176954</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -7534,25 +7534,25 @@
         <v>117</v>
       </c>
       <c r="C176" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D176">
-        <v>55.5</v>
+        <v>16.72469135802469</v>
       </c>
       <c r="E176">
-        <v>46.24999999999999</v>
+        <v>13.93724279835391</v>
       </c>
       <c r="F176">
-        <v>37</v>
+        <v>11.14979423868312</v>
       </c>
       <c r="G176">
-        <v>27.75</v>
+        <v>4.401234567901234</v>
       </c>
       <c r="H176">
-        <v>18.5</v>
+        <v>2.934156378600823</v>
       </c>
       <c r="I176">
-        <v>9.25</v>
+        <v>1.467078189300412</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7572,25 +7572,25 @@
         <v>118</v>
       </c>
       <c r="C177" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D177">
-        <v>104.9259259259259</v>
+        <v>72.58</v>
       </c>
       <c r="E177">
-        <v>87.43827160493825</v>
+        <v>60.48333333333334</v>
       </c>
       <c r="F177">
-        <v>69.95061728395061</v>
+        <v>48.38666666666667</v>
       </c>
       <c r="G177">
-        <v>52.46296296296295</v>
+        <v>36.29</v>
       </c>
       <c r="H177">
-        <v>34.9753086419753</v>
+        <v>24.19333333333334</v>
       </c>
       <c r="I177">
-        <v>17.48765432098764</v>
+        <v>12.09666666666666</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -7610,25 +7610,25 @@
         <v>119</v>
       </c>
       <c r="C178" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D178">
-        <v>2.006172839506173</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E178">
-        <v>1.671810699588477</v>
+        <v>1.492621527777778</v>
       </c>
       <c r="F178">
-        <v>1.337448559670782</v>
+        <v>1.194097222222222</v>
       </c>
       <c r="G178">
-        <v>1.003086419753086</v>
+        <v>0.8955729166666668</v>
       </c>
       <c r="H178">
-        <v>0.6687242798353911</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I178">
-        <v>0.3343621399176954</v>
+        <v>0.1571180555555556</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7648,25 +7648,25 @@
         <v>120</v>
       </c>
       <c r="C179" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D179">
-        <v>16.72469135802469</v>
+        <v>46.77283950617284</v>
       </c>
       <c r="E179">
-        <v>13.93724279835391</v>
+        <v>38.97736625514404</v>
       </c>
       <c r="F179">
-        <v>11.14979423868312</v>
+        <v>31.18189300411523</v>
       </c>
       <c r="G179">
-        <v>4.401234567901234</v>
+        <v>23.38641975308642</v>
       </c>
       <c r="H179">
-        <v>2.934156378600823</v>
+        <v>8.205761316872429</v>
       </c>
       <c r="I179">
-        <v>1.467078189300412</v>
+        <v>4.102880658436215</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7686,25 +7686,25 @@
         <v>121</v>
       </c>
       <c r="C180" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D180">
-        <v>72.58</v>
+        <v>12.24719102576128</v>
       </c>
       <c r="E180">
-        <v>60.48333333333334</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>48.38666666666667</v>
+        <v>40.84222463615677</v>
       </c>
       <c r="G180">
-        <v>36.29</v>
+        <v>51.94454629629628</v>
       </c>
       <c r="H180">
-        <v>24.19333333333334</v>
+        <v>49.28213594751362</v>
       </c>
       <c r="I180">
-        <v>12.09666666666666</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -7724,25 +7724,25 @@
         <v>122</v>
       </c>
       <c r="C181" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D181">
-        <v>1.791145833333334</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>1.492621527777778</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.6284722222222222</v>
+        <v>23.92759934007162</v>
       </c>
       <c r="G181">
-        <v>0.6284722222222222</v>
+        <v>86.78106790123456</v>
       </c>
       <c r="H181">
-        <v>0.3142361111111111</v>
+        <v>31.38673764839721</v>
       </c>
       <c r="I181">
-        <v>0.2985243055555556</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7762,25 +7762,25 @@
         <v>123</v>
       </c>
       <c r="C182" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D182">
-        <v>46.77283950617284</v>
+        <v>64.94416991284696</v>
       </c>
       <c r="E182">
-        <v>38.97736625514404</v>
+        <v>58.92502057613169</v>
       </c>
       <c r="F182">
-        <v>31.18189300411523</v>
+        <v>70.69267972498844</v>
       </c>
       <c r="G182">
-        <v>23.38641975308642</v>
+        <v>95.64526543209874</v>
       </c>
       <c r="H182">
-        <v>8.205761316872429</v>
+        <v>173.1516048410997</v>
       </c>
       <c r="I182">
-        <v>4.102880658436215</v>
+        <v>10.61659474938129</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -7800,34 +7800,34 @@
         <v>124</v>
       </c>
       <c r="C183" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D183">
-        <v>12.73786478051323</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
       <c r="F183">
-        <v>40.25617061637427</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>51.94454629629631</v>
+        <v>9.767026234567901</v>
       </c>
       <c r="H183">
-        <v>61.17107354234623</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>30.15748240240086</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>22.30169694553842</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>18.92616277870373</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>15.27998725545088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7838,7 +7838,7 @@
         <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -7847,25 +7847,25 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>21.2903562510504</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>86.78106790123461</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>37.22907812962964</v>
+        <v>172.2762565833685</v>
       </c>
       <c r="I184">
-        <v>22.99698299382717</v>
+        <v>80.48870438379083</v>
       </c>
       <c r="J184">
-        <v>22.99698299382717</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>9.893041740740744</v>
+        <v>17.05071636104366</v>
       </c>
       <c r="L184">
-        <v>20.17601079056299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7876,34 +7876,34 @@
         <v>126</v>
       </c>
       <c r="C185" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D185">
-        <v>63.06918029464622</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>58.92502057613169</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>69.52057168542345</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>95.6452654320988</v>
+        <v>53.13945216049385</v>
       </c>
       <c r="H185">
-        <v>114.4637531274253</v>
+        <v>155.4304565720427</v>
       </c>
       <c r="I185">
-        <v>42.93945534552323</v>
+        <v>681.1137039243375</v>
       </c>
       <c r="J185">
-        <v>272.6941123054731</v>
+        <v>951.1799844727329</v>
       </c>
       <c r="K185">
-        <v>224.4421592105393</v>
+        <v>943.5291554254187</v>
       </c>
       <c r="L185">
-        <v>265.9462437991743</v>
+        <v>973.1819073928918</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7914,22 +7914,22 @@
         <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>3.038345899220498</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>54.89912853394371</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>54.89912853394371</v>
       </c>
       <c r="G186">
-        <v>9.767026234567899</v>
+        <v>59.21288306825053</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>59.21288306825053</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -7938,10 +7938,10 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <v>9.767026234567897</v>
+        <v>0</v>
       </c>
       <c r="L186">
-        <v>4.190054254629415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7952,34 +7952,34 @@
         <v>128</v>
       </c>
       <c r="C187" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>19.03769417723831</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>140.8007896607496</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>140.8007896607496</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>178.5613717252231</v>
       </c>
       <c r="H187">
-        <v>258.7467072631695</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>346.7386966666647</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>346.3257850704548</v>
+        <v>0</v>
       </c>
       <c r="K187">
-        <v>410.6249982552187</v>
+        <v>0</v>
       </c>
       <c r="L187">
-        <v>386.0456737976899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7990,34 +7990,34 @@
         <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>605.9644549513345</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>701.4862186387925</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>757.7692376476073</v>
       </c>
       <c r="G188">
-        <v>53.13945216049389</v>
+        <v>928.1238220700824</v>
       </c>
       <c r="H188">
-        <v>143.0577010681053</v>
+        <v>1320.632160492373</v>
       </c>
       <c r="I188">
-        <v>221.324421147774</v>
+        <v>184.4907932411616</v>
       </c>
       <c r="J188">
-        <v>210.788527677023</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>205.7916245717217</v>
+        <v>0</v>
       </c>
       <c r="L188">
-        <v>198.0274628667048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8028,25 +8028,25 @@
         <v>130</v>
       </c>
       <c r="C189" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D189">
-        <v>1.90188344091011</v>
+        <v>22.33184183417986</v>
       </c>
       <c r="E189">
-        <v>54.83203118562434</v>
+        <v>22.33184183417986</v>
       </c>
       <c r="F189">
-        <v>54.83203118562434</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>61.37074971597005</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>61.37074971597006</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>45.8825906241661</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>131</v>
       </c>
       <c r="C190" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>0.5196656648994896</v>
       </c>
       <c r="E190">
-        <v>138.3985374656952</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>138.3985374656952</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>138.3985374656952</v>
+        <v>5.469346120736525</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>5.469346120736525</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -8104,34 +8104,34 @@
         <v>132</v>
       </c>
       <c r="C191" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D191">
-        <v>592.3269054516097</v>
+        <v>42.92383281827501</v>
       </c>
       <c r="E191">
-        <v>700.68105045896</v>
+        <v>131.1507688379445</v>
       </c>
       <c r="F191">
-        <v>757.6937028960867</v>
+        <v>193.0280747302389</v>
       </c>
       <c r="G191">
-        <v>923.5945997700387</v>
+        <v>202.7603967638591</v>
       </c>
       <c r="H191">
-        <v>1531.325644829062</v>
+        <v>202.7603967638591</v>
       </c>
       <c r="I191">
-        <v>1826.52035609621</v>
+        <v>1509.538468022855</v>
       </c>
       <c r="J191">
-        <v>2040.992074853965</v>
+        <v>1830.606679391275</v>
       </c>
       <c r="K191">
-        <v>2061.801976303833</v>
+        <v>1854.109307081524</v>
       </c>
       <c r="L191">
-        <v>2082.5006894565</v>
+        <v>1873.693336637573</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8142,22 +8142,22 @@
         <v>133</v>
       </c>
       <c r="C192" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D192">
-        <v>82.21092641139701</v>
+        <v>53.85046928516022</v>
       </c>
       <c r="E192">
-        <v>121.8273553933445</v>
+        <v>61.25171103035689</v>
       </c>
       <c r="F192">
-        <v>179.6368692268053</v>
+        <v>51.06753925546282</v>
       </c>
       <c r="G192">
-        <v>227.4572759674994</v>
+        <v>31.62702678146667</v>
       </c>
       <c r="H192">
-        <v>77.58572117525188</v>
+        <v>0</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8180,34 +8180,34 @@
         <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D193">
-        <v>52.71400682684985</v>
+        <v>515.7074484229883</v>
       </c>
       <c r="E193">
-        <v>61.18461368203754</v>
+        <v>627.7797128737823</v>
       </c>
       <c r="F193">
-        <v>45.29817361195478</v>
+        <v>692.4092011383017</v>
       </c>
       <c r="G193">
-        <v>39.58135141153119</v>
+        <v>845.4676839751115</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>944.4170500207983</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1044.868001506104</v>
       </c>
       <c r="J193">
-        <v>1.288014195124682</v>
+        <v>1131.72115541086</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1144.258875255126</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>1155.161499623732</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8218,34 +8218,34 @@
         <v>135</v>
       </c>
       <c r="C194" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D194">
-        <v>515.7074484229881</v>
+        <v>2.14434851861212</v>
       </c>
       <c r="E194">
-        <v>627.7797128737823</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>692.4092011383017</v>
+        <v>15.71879005188536</v>
       </c>
       <c r="G194">
-        <v>845.4676839751114</v>
+        <v>22.19528431397849</v>
       </c>
       <c r="H194">
-        <v>944.4170500207983</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1044.868001506103</v>
+        <v>0</v>
       </c>
       <c r="J194">
-        <v>1140.461959621419</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>1144.724979318485</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>1153.96856608495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8256,19 +8256,19 @@
         <v>136</v>
       </c>
       <c r="C195" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D195">
-        <v>13.55963600907824</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>18.56031889939485</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>22.2102708140435</v>
+        <v>6.625781928289896</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>137</v>
       </c>
       <c r="C196" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D196">
-        <v>6.919366753137683</v>
+        <v>56.10324567330421</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>76.00261843776319</v>
       </c>
       <c r="F196">
-        <v>7.350915384081461</v>
+        <v>86.87137094975176</v>
       </c>
       <c r="G196">
-        <v>7.350915384081461</v>
+        <v>106.5072857674233</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8332,34 +8332,34 @@
         <v>138</v>
       </c>
       <c r="C197" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D197">
-        <v>58.85990844045291</v>
+        <v>88.44917159923011</v>
       </c>
       <c r="E197">
-        <v>76.08511717684857</v>
+        <v>102.9575567093681</v>
       </c>
       <c r="F197">
-        <v>86.84274676034873</v>
+        <v>108.4353215670357</v>
       </c>
       <c r="G197">
-        <v>106.5822182677483</v>
+        <v>122.6802487303863</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>243.2475586176612</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>259.5920223979293</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>280.847211359811</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>283.8393311831778</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>281.3829605343573</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8370,34 +8370,34 @@
         <v>139</v>
       </c>
       <c r="C198" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D198">
-        <v>91.20583436637881</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>103.0400554484535</v>
+        <v>31.19555648076249</v>
       </c>
       <c r="F198">
-        <v>108.4066973776326</v>
+        <v>30.1703004245182</v>
       </c>
       <c r="G198">
-        <v>122.7551812307113</v>
+        <v>30.89847682941057</v>
       </c>
       <c r="H198">
-        <v>243.3055919280574</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>246.1514585136985</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>280.6523208896729</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>283.6552415126413</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>281.2059238303893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8408,25 +8408,25 @@
         <v>140</v>
       </c>
       <c r="C199" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D199">
-        <v>0.2158541666666667</v>
+        <v>32.0517851450943</v>
       </c>
       <c r="E199">
-        <v>31.21205622857958</v>
+        <v>9.413853407529261</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>31.18056402392004</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>30.99620206191291</v>
+        <v>0</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -8446,19 +8446,19 @@
         <v>141</v>
       </c>
       <c r="C200" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D200">
-        <v>32.27623758609646</v>
+        <v>17.63882913351919</v>
       </c>
       <c r="E200">
-        <v>15.87417801722038</v>
+        <v>26.39898976193653</v>
       </c>
       <c r="F200">
-        <v>26.84250886485398</v>
+        <v>31.54690228936572</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>31.54690228936572</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8484,72 +8484,34 @@
         <v>142</v>
       </c>
       <c r="C201" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D201">
-        <v>18.74149424037868</v>
+        <v>181.4191690980392</v>
       </c>
       <c r="E201">
-        <v>26.43198925757068</v>
+        <v>220.6045509075027</v>
       </c>
       <c r="F201">
-        <v>31.5354526136045</v>
+        <v>243.0542017181527</v>
       </c>
       <c r="G201">
-        <v>31.5354526136045</v>
+        <v>290.6634209671804</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>323.4626603912272</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>356.900420755652</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>381.6982187031364</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>384.0540812278407</v>
       </c>
       <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>143</v>
-      </c>
-      <c r="C202" t="s">
-        <v>164</v>
-      </c>
-      <c r="D202">
-        <v>181.4191690980392</v>
-      </c>
-      <c r="E202">
-        <v>220.6045509075029</v>
-      </c>
-      <c r="F202">
-        <v>243.0542017181527</v>
-      </c>
-      <c r="G202">
-        <v>290.6634209671802</v>
-      </c>
-      <c r="H202">
-        <v>323.4626603912272</v>
-      </c>
-      <c r="I202">
-        <v>356.9004207556519</v>
-      </c>
-      <c r="J202">
-        <v>381.6982187031362</v>
-      </c>
-      <c r="K202">
-        <v>384.0540812278406</v>
-      </c>
-      <c r="L202">
-        <v>383.2749919686185</v>
+        <v>383.2749919686188</v>
       </c>
     </row>
   </sheetData>
